--- a/assets/data/Items.xlsx
+++ b/assets/data/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674C3C3D-8E9F-4C73-B1FA-E0CA3F6DD74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF12482-7F92-441B-AED9-38F7F99302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1635" windowWidth="16560" windowHeight="18165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="15" r:id="rId1"/>
@@ -3204,7 +3204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3241,7 +3241,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3267,27 +3267,27 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF9900FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF9900"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3295,7 +3295,7 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF0B5394"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3308,7 +3308,7 @@
     <font>
       <b/>
       <sz val="10.5"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3316,49 +3316,49 @@
       <b/>
       <sz val="10.5"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF33FF33"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFCC00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFDEAD"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF87CEEB"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFF33"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3366,44 +3366,50 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF11FF11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF999999"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF8B66FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF666666"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFB45F06"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4067,7 +4073,7 @@
       <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
@@ -4077,7 +4083,7 @@
     <col min="20" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="63" customFormat="1">
       <c r="E1" s="64" t="s">
         <v>326</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="65" customFormat="1">
       <c r="A10" s="48">
         <v>9</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="65" customFormat="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="65" customFormat="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="65" customFormat="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="65" customFormat="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="65" customFormat="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="65" customFormat="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="15" t="s">
         <v>989</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="15" t="s">
         <v>991</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="15" t="s">
         <v>997</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="15" t="s">
         <v>999</v>
       </c>
@@ -4820,6 +4826,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -4831,11 +4838,11 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -4850,7 +4857,7 @@
     <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="35" customFormat="1">
       <c r="A1" s="35" t="s">
         <v>530</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="14">
         <v>4</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="14">
         <v>5</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="14">
         <v>13</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="14">
         <v>14</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="14">
         <v>7</v>
       </c>
@@ -5006,7 +5013,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="14">
         <v>21</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="14">
         <v>22</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="14">
         <v>23</v>
       </c>
@@ -5075,7 +5082,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="14">
         <v>17</v>
       </c>
@@ -5098,7 +5105,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -5121,7 +5128,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -5190,7 +5197,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="14">
         <v>18</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="14">
         <v>20</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="14">
         <v>19</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="14">
         <v>8</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="14">
         <v>95</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="14">
         <v>27</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="14">
         <v>1</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="14">
         <v>2</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="14">
         <v>3</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="14">
         <v>6</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="14">
         <v>72</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="14">
         <v>73</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="14">
         <v>74</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="14">
         <v>24</v>
       </c>
@@ -5558,7 +5565,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="14">
         <v>25</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="14">
         <v>26</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="14">
         <v>43</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="14">
         <v>44</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="14">
         <v>45</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="14">
         <v>57</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="14">
         <v>58</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="14">
         <v>66</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="14">
         <v>68</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="14">
         <v>79</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="14">
         <v>80</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="14">
         <v>91</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="14">
         <v>40</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="14">
         <v>28</v>
       </c>
@@ -5880,7 +5887,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="14">
         <v>39</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="14">
         <v>65</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="14">
         <v>67</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="14">
         <v>69</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="14">
         <v>71</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="14">
         <v>76</v>
       </c>
@@ -6036,7 +6043,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="14">
         <v>78</v>
       </c>
@@ -6059,7 +6066,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="14">
         <v>81</v>
       </c>
@@ -6082,7 +6089,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="14">
         <v>86</v>
       </c>
@@ -6105,7 +6112,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="14">
         <v>90</v>
       </c>
@@ -6146,7 +6153,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="14">
         <v>92</v>
       </c>
@@ -6169,7 +6176,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="14">
         <v>93</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="14">
         <v>94</v>
       </c>
@@ -6215,7 +6222,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="14">
         <v>96</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="14">
         <v>70</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="14">
         <v>46</v>
       </c>
@@ -6302,7 +6309,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="14">
         <v>47</v>
       </c>
@@ -6325,7 +6332,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="14">
         <v>48</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="14">
         <v>49</v>
       </c>
@@ -6389,7 +6396,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="14">
         <v>50</v>
       </c>
@@ -6430,7 +6437,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="14">
         <v>51</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="14">
         <v>52</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="14">
         <v>53</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="14">
         <v>54</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="14">
         <v>55</v>
       </c>
@@ -6599,7 +6606,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="14">
         <v>56</v>
       </c>
@@ -6622,7 +6629,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="14">
         <v>59</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="14">
         <v>60</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="14">
         <v>61</v>
       </c>
@@ -6745,7 +6752,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="14">
         <v>62</v>
       </c>
@@ -6786,7 +6793,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="14">
         <v>63</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="14">
         <v>64</v>
       </c>
@@ -6868,7 +6875,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="14">
         <v>75</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="14">
         <v>87</v>
       </c>
@@ -6914,7 +6921,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="14">
         <v>88</v>
       </c>
@@ -6955,7 +6962,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="14">
         <v>89</v>
       </c>
@@ -6978,7 +6985,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="14">
         <v>33</v>
       </c>
@@ -7019,7 +7026,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="14">
         <v>99</v>
       </c>
@@ -7039,7 +7046,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="14">
         <v>77</v>
       </c>
@@ -7062,7 +7069,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="14">
         <v>42</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="14">
         <v>41</v>
       </c>
@@ -7126,7 +7133,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="14">
         <v>82</v>
       </c>
@@ -7167,7 +7174,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="14">
         <v>83</v>
       </c>
@@ -7190,7 +7197,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="14">
         <v>84</v>
       </c>
@@ -7231,7 +7238,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="14">
         <v>85</v>
       </c>
@@ -7254,7 +7261,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="14">
         <v>29</v>
       </c>
@@ -7295,7 +7302,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="14">
         <v>30</v>
       </c>
@@ -7318,7 +7325,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="14">
         <v>31</v>
       </c>
@@ -7341,7 +7348,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="14">
         <v>32</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="14">
         <v>34</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="14">
         <v>35</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="14">
         <v>36</v>
       </c>
@@ -7487,7 +7494,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="14">
         <v>37</v>
       </c>
@@ -7528,7 +7535,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="14">
         <v>38</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="14">
         <v>97</v>
       </c>
@@ -7571,7 +7578,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="14">
         <v>98</v>
       </c>
@@ -7595,20 +7602,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M99">
     <sortCondition ref="C1"/>
   </sortState>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7621,11 +7629,11 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="44" bestFit="1" customWidth="1"/>
@@ -7636,7 +7644,7 @@
     <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
         <v>531</v>
       </c>
@@ -7645,7 +7653,7 @@
       </c>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="35" customFormat="1">
       <c r="A2" s="35" t="s">
         <v>635</v>
       </c>
@@ -7668,7 +7676,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <v>-1</v>
       </c>
@@ -7679,7 +7687,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -7706,11 +7714,11 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="14">
         <v>-1</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="14">
         <v>13</v>
       </c>
@@ -7748,11 +7756,11 @@
         <v>+5-30 Agility</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>-1</v>
       </c>
@@ -7763,7 +7771,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="14">
         <v>14</v>
       </c>
@@ -7790,11 +7798,11 @@
         <v>+5-30 Intelligence</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="14">
         <v>-1</v>
       </c>
@@ -7805,7 +7813,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -7832,11 +7840,11 @@
         <v>+4-21 All stats</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="14">
         <v>-1</v>
       </c>
@@ -7847,7 +7855,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="14">
         <v>24</v>
       </c>
@@ -7874,11 +7882,11 @@
         <v>+11-51 Movement speed</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="14">
         <v>-1</v>
       </c>
@@ -7889,7 +7897,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="14">
         <v>4</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>+4-21 Strength</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="14">
         <v>13</v>
       </c>
@@ -7943,11 +7951,11 @@
         <v>+4-21 Agility</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="14">
         <v>-1</v>
       </c>
@@ -7958,7 +7966,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="14">
         <v>4</v>
       </c>
@@ -7985,7 +7993,7 @@
         <v>+4-21 Strength</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="14">
         <v>14</v>
       </c>
@@ -8012,11 +8020,11 @@
         <v>+4-21 Intelligence</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="14">
         <v>-1</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="14">
         <v>13</v>
       </c>
@@ -8054,7 +8062,7 @@
         <v>+4-21 Agility</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="14">
         <v>14</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>+4-21 Intelligence</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="14">
         <v>-1</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="14">
         <v>9</v>
       </c>
@@ -8119,7 +8127,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="14">
         <v>-1</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="14">
         <v>12</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="14">
         <v>-1</v>
       </c>
@@ -8168,7 +8176,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="14">
         <v>11</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="14">
         <v>-1</v>
       </c>
@@ -8206,7 +8214,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="14">
         <v>21</v>
       </c>
@@ -8233,11 +8241,11 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="14">
         <v>-1</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="14">
         <v>8</v>
       </c>
@@ -8275,11 +8283,11 @@
         <v>+2-9 Armor</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="14">
         <v>-1</v>
       </c>
@@ -8290,7 +8298,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="14">
         <v>27</v>
       </c>
@@ -8317,7 +8325,7 @@
         <v>+0.02-0.09 Dodge chance</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="14">
         <v>-1</v>
       </c>
@@ -8328,7 +8336,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="14">
         <v>17</v>
       </c>
@@ -8355,7 +8363,7 @@
         <v>+75-450 Max MP</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="14">
         <v>-1</v>
       </c>
@@ -8366,7 +8374,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="14">
         <v>72</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>Regens 1-6 MP per second</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="14">
         <v>-1</v>
       </c>
@@ -8404,7 +8412,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="14">
         <v>18</v>
       </c>
@@ -8431,7 +8439,7 @@
         <v>+5-30 Spell power</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="14">
         <v>-1</v>
       </c>
@@ -8442,7 +8450,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="14">
         <v>20</v>
       </c>
@@ -8469,7 +8477,7 @@
         <v>+0.03-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="14">
         <v>-1</v>
       </c>
@@ -8480,7 +8488,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="14">
         <v>19</v>
       </c>
@@ -8507,7 +8515,7 @@
         <v>+0.03-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="14">
         <v>-1</v>
       </c>
@@ -8518,7 +8526,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="14">
         <v>73</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>Regens 2-12 HP per second</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="14">
         <v>31</v>
       </c>
@@ -8572,11 +8580,11 @@
         <v>Use: Regens 400-2400 HP</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="14">
         <v>-1</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="14">
         <v>72</v>
       </c>
@@ -8614,7 +8622,7 @@
         <v>Regens 1-3 MP per second</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="14">
         <v>30</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>Use: Regens 200-1200 MP</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="14">
         <v>-1</v>
       </c>
@@ -8652,7 +8660,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="14">
         <v>53</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>On Attack: 25% chance to deal 25-300 physical damage</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="14">
         <v>-10</v>
       </c>
@@ -8690,7 +8698,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="14">
         <v>-1</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="14">
         <v>35</v>
       </c>
@@ -8728,7 +8736,7 @@
         <v>Use: Increase dodge chance by 30%, lasts for 8-36 seconds</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="14">
         <v>-10</v>
       </c>
@@ -8739,11 +8747,11 @@
         <v>849</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="F78" s="40"/>
       <c r="G78" s="40"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="14">
         <v>-1</v>
       </c>
@@ -8754,7 +8762,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="14">
         <v>2</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>-0.03-0.15 magical damage taken</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="14">
         <v>-10</v>
       </c>
@@ -8792,7 +8800,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="14">
         <v>-1</v>
       </c>
@@ -8803,7 +8811,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="14">
         <v>33</v>
       </c>
@@ -8830,7 +8838,7 @@
         <v>Dealing Magical Damage: 15% chance to increase intelligence by 15-135, lasts for 15 seconds</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="14">
         <v>-10</v>
       </c>
@@ -8842,6 +8850,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8852,11 +8861,11 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -8868,7 +8877,7 @@
     <col min="8" max="16384" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
         <v>531</v>
       </c>
@@ -8879,7 +8888,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
         <v>635</v>
       </c>
@@ -8902,7 +8911,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <v>-2</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -8935,7 +8944,7 @@
         <v>+10-60 Strength</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>21</v>
       </c>
@@ -8959,10 +8968,10 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="F6" s="51"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="14">
         <v>-2</v>
       </c>
@@ -8971,7 +8980,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>13</v>
       </c>
@@ -8995,7 +9004,7 @@
         <v>+10-60 Agility</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>21</v>
       </c>
@@ -9019,10 +9028,10 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="F10" s="51"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="14">
         <v>-2</v>
       </c>
@@ -9031,7 +9040,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -9055,7 +9064,7 @@
         <v>+10-60 Intelligence</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="14">
         <v>21</v>
       </c>
@@ -9079,10 +9088,10 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="F14" s="51"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="14">
         <v>-1</v>
       </c>
@@ -9093,7 +9102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="14">
         <v>9</v>
       </c>
@@ -9120,7 +9129,7 @@
         <v>+8-45 Attack power</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -9147,7 +9156,7 @@
         <v>+4-24% Attack speed</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="14">
         <v>-10</v>
       </c>
@@ -9162,13 +9171,13 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="E19" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A19,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="15" customFormat="1">
       <c r="A20" s="14">
         <v>-2</v>
       </c>
@@ -9186,7 +9195,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="15" customFormat="1">
       <c r="A21" s="14">
         <v>7</v>
       </c>
@@ -9213,7 +9222,7 @@
         <v>+12-63 All stats</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="15" customFormat="1">
       <c r="A22" s="14">
         <v>-11</v>
       </c>
@@ -9231,7 +9240,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="15" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -9243,7 +9252,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="15" customFormat="1">
       <c r="A24" s="14">
         <v>-2</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="15" customFormat="1">
       <c r="A25" s="14">
         <v>21</v>
       </c>
@@ -9288,7 +9297,7 @@
         <v>+100-600 Max HP</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="15" customFormat="1">
       <c r="A26" s="14">
         <v>17</v>
       </c>
@@ -9315,7 +9324,7 @@
         <v>+100-600 Max MP</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="15" customFormat="1">
       <c r="A27" s="14">
         <v>24</v>
       </c>
@@ -9342,7 +9351,7 @@
         <v>+13-75 Movement speed</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="15" customFormat="1">
       <c r="A28" s="14">
         <v>36</v>
       </c>
@@ -9369,7 +9378,7 @@
         <v>Use: Increase movement speed by 300, lasts for 8-36 seconds. Possible failures.</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="15" customFormat="1">
       <c r="A29" s="14">
         <v>-11</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="15" customFormat="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -9399,7 +9408,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="40"/>
     </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="15" customFormat="1">
       <c r="A31" s="14">
         <v>-2</v>
       </c>
@@ -9417,7 +9426,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="15" customFormat="1">
       <c r="A32" s="14">
         <v>56</v>
       </c>
@@ -9444,7 +9453,7 @@
         <v>On Attack: Target takes 0.01-0.06 extra damage</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="15" customFormat="1">
       <c r="A33" s="14">
         <v>84</v>
       </c>
@@ -9471,7 +9480,7 @@
         <v>Grant Aura of Warsong: All allies deal 0.01-0.06 more damage and healing, take 10% more healing within 600 yards</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="15" customFormat="1">
       <c r="A34" s="14">
         <v>-11</v>
       </c>
@@ -9489,13 +9498,13 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="E35" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A35,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="14">
         <v>-2</v>
       </c>
@@ -9510,7 +9519,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="14">
         <v>4</v>
       </c>
@@ -9537,7 +9546,7 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="14">
         <v>12</v>
       </c>
@@ -9564,7 +9573,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="14">
         <v>9</v>
       </c>
@@ -9591,7 +9600,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="14">
         <v>-11</v>
       </c>
@@ -9606,13 +9615,13 @@
         <v>850</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="E41" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A41,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="14">
         <v>-2</v>
       </c>
@@ -9627,7 +9636,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="14">
         <v>4</v>
       </c>
@@ -9654,7 +9663,7 @@
         <v>+6-36 Strength</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="14">
         <v>21</v>
       </c>
@@ -9681,7 +9690,7 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="14">
         <v>11</v>
       </c>
@@ -9708,7 +9717,7 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="14">
         <v>-11</v>
       </c>
@@ -9723,13 +9732,13 @@
         <v>851</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="E47" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A47,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="14">
         <v>-2</v>
       </c>
@@ -9744,7 +9753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="14">
         <v>21</v>
       </c>
@@ -9771,7 +9780,7 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="14">
         <v>12</v>
       </c>
@@ -9798,7 +9807,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="14">
         <v>11</v>
       </c>
@@ -9825,13 +9834,13 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="E52" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A52,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="14">
         <v>-2</v>
       </c>
@@ -9846,7 +9855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="14">
         <v>13</v>
       </c>
@@ -9873,7 +9882,7 @@
         <v>+5-30 Agility</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="14">
         <v>9</v>
       </c>
@@ -9900,7 +9909,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="14">
         <v>12</v>
       </c>
@@ -9927,7 +9936,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="14">
         <v>-11</v>
       </c>
@@ -9942,13 +9951,13 @@
         <v>852</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="E58" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A58,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="14">
         <v>-2</v>
       </c>
@@ -9963,7 +9972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="14">
         <v>9</v>
       </c>
@@ -9990,7 +9999,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="14">
         <v>3</v>
       </c>
@@ -10017,7 +10026,7 @@
         <v>+0.01-0.03 Damage and healing dealt</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="14">
         <v>48</v>
       </c>
@@ -10044,7 +10053,7 @@
         <v>On Attack: 0.05-0.21 chance to increase 30% attack speed, lasts for 5 seconds</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="14">
         <v>-11</v>
       </c>
@@ -10059,13 +10068,13 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A64,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="15" customFormat="1">
       <c r="A65" s="14">
         <v>-2</v>
       </c>
@@ -10083,7 +10092,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="15" customFormat="1">
       <c r="A66" s="14">
         <v>8</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>+6-9 Armor</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="15" customFormat="1">
       <c r="A67" s="14">
         <v>21</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>+360-720 Max HP</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="15" customFormat="1">
       <c r="A68" s="14">
         <v>74</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>Lost 12-24 HP per second during combat</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="15" customFormat="1">
       <c r="A69" s="14">
         <v>41</v>
       </c>
@@ -10191,7 +10200,7 @@
         <v>On Attacked: Decreases attacker's attack power by 150-300</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="15" customFormat="1">
       <c r="A70" s="14">
         <v>-11</v>
       </c>
@@ -10209,7 +10218,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="15" customFormat="1">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -10221,7 +10230,7 @@
       <c r="F71" s="50"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="15" customFormat="1">
       <c r="A72" s="14">
         <v>-2</v>
       </c>
@@ -10239,7 +10248,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="15" customFormat="1">
       <c r="A73" s="14">
         <v>8</v>
       </c>
@@ -10266,7 +10275,7 @@
         <v>+6-9 Armor</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="15" customFormat="1">
       <c r="A74" s="14">
         <v>4</v>
       </c>
@@ -10293,7 +10302,7 @@
         <v>+15-30 Strength</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="15" customFormat="1">
       <c r="A75" s="14">
         <v>15</v>
       </c>
@@ -10320,7 +10329,7 @@
         <v>+42-84 Block points</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="15" customFormat="1">
       <c r="A76" s="14">
         <v>98</v>
       </c>
@@ -10347,7 +10356,7 @@
         <v>Rise of Zandalari set</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="15" customFormat="1">
       <c r="A77" s="14">
         <v>-10</v>
       </c>
@@ -10365,7 +10374,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="15" customFormat="1">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -10377,7 +10386,7 @@
       <c r="F78" s="50"/>
       <c r="G78" s="40"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1">
       <c r="A79" s="14">
         <v>-2</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="15" customFormat="1">
       <c r="A80" s="14">
         <v>14</v>
       </c>
@@ -10417,7 +10426,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="15" customFormat="1">
       <c r="A81" s="14">
         <v>73</v>
       </c>
@@ -10444,7 +10453,7 @@
         <v>Regens 18-36 HP per second</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="15" customFormat="1">
       <c r="A82" s="14">
         <v>20</v>
       </c>
@@ -10471,7 +10480,7 @@
         <v>+0.09-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="15" customFormat="1">
       <c r="A83" s="14">
         <v>98</v>
       </c>
@@ -10498,7 +10507,7 @@
         <v>Rise of Zandalari set</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="15" customFormat="1">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -10507,7 +10516,7 @@
       <c r="F84" s="50"/>
       <c r="G84" s="40"/>
     </row>
-    <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="15" customFormat="1">
       <c r="A85" s="14">
         <v>-2</v>
       </c>
@@ -10520,7 +10529,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="15" customFormat="1">
       <c r="A86" s="14">
         <v>21</v>
       </c>
@@ -10547,7 +10556,7 @@
         <v>+225-450 Max HP</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="15" customFormat="1">
       <c r="A87" s="14">
         <v>11</v>
       </c>
@@ -10574,7 +10583,7 @@
         <v>+0.09-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="15" customFormat="1">
       <c r="A88" s="14">
         <v>54</v>
       </c>
@@ -10601,7 +10610,7 @@
         <v>On Attack: 10% chance to stun target for 1.05-2.1 seconds</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="15" customFormat="1">
       <c r="A89" s="14">
         <v>98</v>
       </c>
@@ -10628,7 +10637,7 @@
         <v>Rise of Zandalari set</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="15" customFormat="1">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -10637,7 +10646,7 @@
       <c r="F90" s="50"/>
       <c r="G90" s="40"/>
     </row>
-    <row r="91" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="15" customFormat="1">
       <c r="A91" s="14">
         <v>-2</v>
       </c>
@@ -10655,7 +10664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="15" customFormat="1">
       <c r="A92" s="14">
         <v>21</v>
       </c>
@@ -10682,7 +10691,7 @@
         <v>+300-600 Max HP</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="15" customFormat="1">
       <c r="A93" s="14">
         <v>27</v>
       </c>
@@ -10709,7 +10718,7 @@
         <v>+0.06-0.09 Dodge chance</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="15" customFormat="1">
       <c r="A94" s="14">
         <v>6</v>
       </c>
@@ -10736,7 +10745,7 @@
         <v>+0.09-0.18 Healing taken</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="15" customFormat="1">
       <c r="A95" s="14">
         <v>-11</v>
       </c>
@@ -10754,7 +10763,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="15" customFormat="1">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -10766,7 +10775,7 @@
       <c r="F96" s="50"/>
       <c r="G96" s="40"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="14">
         <v>-2</v>
       </c>
@@ -10781,7 +10790,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="14">
         <v>14</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="14">
         <v>18</v>
       </c>
@@ -10835,7 +10844,7 @@
         <v>+15-30 Spell power</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="14">
         <v>72</v>
       </c>
@@ -10862,7 +10871,7 @@
         <v>Regens 3-6 MP per second</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="14">
         <v>-11</v>
       </c>
@@ -10877,13 +10886,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="E102" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A102,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="14">
         <v>-2</v>
       </c>
@@ -10898,7 +10907,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="14">
         <v>77</v>
       </c>
@@ -10925,7 +10934,7 @@
         <v>Magical Damage Critical: Charges with arcane power. All arcane power will be released automatically after 3 stacks, dealing 510-1020 magical damage to target</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="14">
         <v>-11</v>
       </c>
@@ -10940,13 +10949,13 @@
         <v>854</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="E106" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A106,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="14">
         <v>-2</v>
       </c>
@@ -10961,7 +10970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="14">
         <v>14</v>
       </c>
@@ -10988,7 +10997,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="14">
         <v>18</v>
       </c>
@@ -11015,7 +11024,7 @@
         <v>+15-30 Spell power</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="14">
         <v>34</v>
       </c>
@@ -11042,7 +11051,7 @@
         <v>Use: Increase spell power by 120-240, lasts for 15 seconds</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="14">
         <v>-11</v>
       </c>
@@ -11057,14 +11066,14 @@
         <v>497</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="E112" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A112,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
       <c r="F112" s="60"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="14">
         <v>-2</v>
       </c>
@@ -11079,7 +11088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="14">
         <v>14</v>
       </c>
@@ -11106,7 +11115,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="14">
         <v>18</v>
       </c>
@@ -11133,7 +11142,7 @@
         <v>+15-30 Spell power</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="14">
         <v>20</v>
       </c>
@@ -11160,7 +11169,7 @@
         <v>+0.09-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="14">
         <v>-11</v>
       </c>
@@ -11175,13 +11184,13 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="E118" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A118,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="14">
         <v>-2</v>
       </c>
@@ -11196,7 +11205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="14">
         <v>4</v>
       </c>
@@ -11223,7 +11232,7 @@
         <v>+15-30 Strength</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="14">
         <v>72</v>
       </c>
@@ -11250,7 +11259,7 @@
         <v>Regens 6-12 MP per second</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="14">
         <v>87</v>
       </c>
@@ -11277,7 +11286,7 @@
         <v>Dealing Magical Damage or Healing: 1% chance to regen 180-270 MP</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="14">
         <v>-11</v>
       </c>
@@ -11292,13 +11301,13 @@
         <v>499</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="E124" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A124,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="14">
         <v>-2</v>
       </c>
@@ -11306,7 +11315,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="14">
         <v>13</v>
       </c>
@@ -11329,7 +11338,7 @@
         <v>+15-30 Agility</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="14">
         <v>21</v>
       </c>
@@ -11352,7 +11361,7 @@
         <v>+225-450 Max HP</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="14">
         <v>11</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>+0.09-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="14">
         <v>-2</v>
       </c>
@@ -11383,7 +11392,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="14">
         <v>14</v>
       </c>
@@ -11406,7 +11415,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="14">
         <v>72</v>
       </c>
@@ -11429,7 +11438,7 @@
         <v>Regens 3-6 MP per second</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="14">
         <v>19</v>
       </c>
@@ -11452,7 +11461,7 @@
         <v>+0.09-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="14">
         <v>-2</v>
       </c>
@@ -11460,7 +11469,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="14">
         <v>18</v>
       </c>
@@ -11483,7 +11492,7 @@
         <v>+15-30 Spell power</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="14">
         <v>19</v>
       </c>
@@ -11506,7 +11515,7 @@
         <v>+0.09-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="14">
         <v>21</v>
       </c>
@@ -11533,7 +11542,7 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="14">
         <v>-2</v>
       </c>
@@ -11548,7 +11557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="14">
         <v>4</v>
       </c>
@@ -11575,7 +11584,7 @@
         <v>+12-21 Strength</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="14">
         <v>18</v>
       </c>
@@ -11602,7 +11611,7 @@
         <v>+24-45 Spell power</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="14">
         <v>16</v>
       </c>
@@ -11629,7 +11638,7 @@
         <v>+0.12-0.18 Block chance</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="14">
         <v>86</v>
       </c>
@@ -11656,7 +11665,7 @@
         <v>Shield of Sin'dorei provides 0.09-0.21 extra damage reduction, and forces all nearby enemies to attack you</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="14">
         <v>-11</v>
       </c>
@@ -11671,7 +11680,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="E146" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A146,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -11679,7 +11688,7 @@
       <c r="F146" s="61"/>
       <c r="G146" s="40"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="14">
         <v>-2</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="14">
         <v>13</v>
       </c>
@@ -11721,7 +11730,7 @@
         <v>+12-21 Agility</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="14">
         <v>21</v>
       </c>
@@ -11748,7 +11757,7 @@
         <v>+360-720 Max HP</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="14">
         <v>78</v>
       </c>
@@ -11775,7 +11784,7 @@
         <v>Survival Instincts provides 0.24-0.3 extra healing and max HP</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="14">
         <v>92</v>
       </c>
@@ -11802,7 +11811,7 @@
         <v>Reduce cooldown of Survival Instincts by 9-21 seconds (unique)</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="14">
         <v>-11</v>
       </c>
@@ -11817,7 +11826,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="E153" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A153,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -11825,7 +11834,7 @@
       <c r="F153" s="62"/>
       <c r="G153" s="40"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="14">
         <v>-2</v>
       </c>
@@ -11840,7 +11849,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="14">
         <v>14</v>
       </c>
@@ -11867,7 +11876,7 @@
         <v>+12-21 Intelligence</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="14">
         <v>20</v>
       </c>
@@ -11894,7 +11903,7 @@
         <v>+0.09-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="14">
         <v>79</v>
       </c>
@@ -11921,7 +11930,7 @@
         <v>Holy Shock always deals critical healing0-0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="14">
         <v>91</v>
       </c>
@@ -11948,7 +11957,7 @@
         <v>Flash Light dispels one debuff from target0-0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="14">
         <v>-11</v>
       </c>
@@ -11963,7 +11972,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="E160" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A160,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -11971,7 +11980,7 @@
       <c r="F160" s="62"/>
       <c r="G160" s="40"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="14">
         <v>-2</v>
       </c>
@@ -11986,7 +11995,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="14">
         <v>14</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>+12-21 Intelligence</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="14">
         <v>72</v>
       </c>
@@ -12040,7 +12049,7 @@
         <v>Regens 6-12 MP per second</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="14">
         <v>76</v>
       </c>
@@ -12067,7 +12076,7 @@
         <v>Prayer of healing increases armor of target by 12-18</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="14">
         <v>80</v>
       </c>
@@ -12094,7 +12103,7 @@
         <v>Removes weakness effect of Shield0-0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="14">
         <v>-11</v>
       </c>
@@ -12109,7 +12118,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="E167" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A167,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12117,7 +12126,7 @@
       <c r="F167" s="62"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="14">
         <v>-2</v>
       </c>
@@ -12132,7 +12141,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="14">
         <v>7</v>
       </c>
@@ -12159,7 +12168,7 @@
         <v>+12-21 All stats</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="14">
         <v>21</v>
       </c>
@@ -12186,7 +12195,7 @@
         <v>+300-600 Max HP</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="14">
         <v>17</v>
       </c>
@@ -12213,7 +12222,7 @@
         <v>+300-600 Max MP</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="14">
         <v>69</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>Reduce cooldown of Instant Regrowth by 9-14.1 seconds (unique)</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="14">
         <v>-11</v>
       </c>
@@ -12255,7 +12264,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="E174" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A174,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12263,7 +12272,7 @@
       <c r="F174" s="62"/>
       <c r="G174" s="40"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="14">
         <v>-2</v>
       </c>
@@ -12278,7 +12287,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="14">
         <v>4</v>
       </c>
@@ -12305,7 +12314,7 @@
         <v>+15-30 Strength</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="14">
         <v>9</v>
       </c>
@@ -12332,7 +12341,7 @@
         <v>+15-30 Attack power</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="14">
         <v>11</v>
       </c>
@@ -12359,7 +12368,7 @@
         <v>+0.09-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="14">
         <v>39</v>
       </c>
@@ -12386,7 +12395,7 @@
         <v>Regenerates 1.2-1.8 more valor points</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="14">
         <v>-11</v>
       </c>
@@ -12401,7 +12410,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="E181" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A181,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12409,7 +12418,7 @@
       <c r="F181" s="62"/>
       <c r="G181" s="40"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="14">
         <v>-2</v>
       </c>
@@ -12424,7 +12433,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="14">
         <v>13</v>
       </c>
@@ -12451,7 +12460,7 @@
         <v>+15-30 Agility</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="14">
         <v>12</v>
       </c>
@@ -12478,7 +12487,7 @@
         <v>+9-15% Attack speed</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="14">
         <v>66</v>
       </c>
@@ -12505,7 +12514,7 @@
         <v>One-shot target when it's HP is less than yours0-0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="14">
         <v>65</v>
       </c>
@@ -12532,7 +12541,7 @@
         <v>Sinister Strike and Eviscerate deal 0.12-0.18 extra damage to target below 30% max HP</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="14">
         <v>90</v>
       </c>
@@ -12559,7 +12568,7 @@
         <v>Sinister Strike has a 0.09-0.18 chance to paralyze target, reduce target spell haste by 20% and gain an extra combo point</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="14">
         <v>-11</v>
       </c>
@@ -12574,7 +12583,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="E189" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A189,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12582,7 +12591,7 @@
       <c r="F189" s="62"/>
       <c r="G189" s="40"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="14">
         <v>-2</v>
       </c>
@@ -12597,7 +12606,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="14">
         <v>13</v>
       </c>
@@ -12624,7 +12633,7 @@
         <v>+15-24 Agility</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="14">
         <v>12</v>
       </c>
@@ -12651,7 +12660,7 @@
         <v>+9-15% Attack speed</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="14">
         <v>11</v>
       </c>
@@ -12678,7 +12687,7 @@
         <v>+0.09-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="14">
         <v>24</v>
       </c>
@@ -12705,7 +12714,7 @@
         <v>+30-60 Movement speed</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="14">
         <v>94</v>
       </c>
@@ -12732,7 +12741,7 @@
         <v>Number of Dark Arrows increased by 2.1-3 (unique)</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="14">
         <v>-11</v>
       </c>
@@ -12747,7 +12756,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="E197" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A197,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12755,7 +12764,7 @@
       <c r="F197" s="62"/>
       <c r="G197" s="40"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="14">
         <v>-2</v>
       </c>
@@ -12770,7 +12779,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="14">
         <v>14</v>
       </c>
@@ -12797,7 +12806,7 @@
         <v>+15-30 Intelligence</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="14">
         <v>19</v>
       </c>
@@ -12824,7 +12833,7 @@
         <v>+0.09-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="14">
         <v>96</v>
       </c>
@@ -12851,7 +12860,7 @@
         <v>Increase ice spell damage by 0.06-0.12</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="14">
         <v>70</v>
       </c>
@@ -12878,7 +12887,7 @@
         <v>0.03-0.06 chance to cast an instant Frost Bolt to targets damaged by Blizzard</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="14">
         <v>-11</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="E204" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A204,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -12901,7 +12910,7 @@
       <c r="F204" s="62"/>
       <c r="G204" s="40"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="14">
         <v>-2</v>
       </c>
@@ -12916,7 +12925,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="14">
         <v>21</v>
       </c>
@@ -12943,7 +12952,7 @@
         <v>+375-750 Max HP</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="14">
         <v>18</v>
       </c>
@@ -12970,7 +12979,7 @@
         <v>+15-30 Spell power</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="14">
         <v>20</v>
       </c>
@@ -12997,7 +13006,7 @@
         <v>+0.09-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="14">
         <v>81</v>
       </c>
@@ -13024,7 +13033,7 @@
         <v>Marrow Squeeze extends the Pain on target by 4.5-6 seconds</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="14">
         <v>-11</v>
       </c>
@@ -13039,7 +13048,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="E211" s="38" t="str">
         <f ca="1">IFERROR(OFFSET(Attributes!$A$1,MATCH(Rare!$A211,Attributes!$A:$A,0)-1,MATCH("Abbr",Attributes!$1:$1,0)-1),"")</f>
         <v/>
@@ -13047,7 +13056,7 @@
       <c r="F211" s="62"/>
       <c r="G211" s="40"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="14">
         <v>-2</v>
       </c>
@@ -13062,7 +13071,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="14">
         <v>7</v>
       </c>
@@ -13089,7 +13098,7 @@
         <v>+12-21 All stats</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="14">
         <v>12</v>
       </c>
@@ -13116,7 +13125,7 @@
         <v>+9-15% Attack speed</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="14">
         <v>19</v>
       </c>
@@ -13143,7 +13152,7 @@
         <v>+0.09-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="14">
         <v>93</v>
       </c>
@@ -13170,7 +13179,7 @@
         <v>Storm Lash has 0.03-0.09 extra chance to cooldown Earth Shock (unique)</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="14">
         <v>-11</v>
       </c>
@@ -13193,11 +13202,11 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="14" bestFit="1" customWidth="1"/>
@@ -13207,7 +13216,7 @@
     <col min="8" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>531</v>
       </c>
@@ -13220,7 +13229,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="14" customFormat="1">
       <c r="A2" s="35" t="s">
         <v>635</v>
       </c>
@@ -13243,7 +13252,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <v>-3</v>
       </c>
@@ -13254,7 +13263,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="14">
         <v>9</v>
       </c>
@@ -13281,7 +13290,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>18</v>
       </c>
@@ -13308,7 +13317,7 @@
         <v>+5-30 Spell power</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="14">
         <v>73</v>
       </c>
@@ -13335,7 +13344,7 @@
         <v>Regens 10-51 HP per second</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="14">
         <v>57</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>Deals 10-60 extra magical damage per hit</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>29</v>
       </c>
@@ -13389,7 +13398,7 @@
         <v>Use: Battle Orders, increases 0.06-0.36 max HP to all allies within 900 yards, lasts for 75 seconds</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="F9" s="40" t="s">
         <v>44</v>
       </c>
@@ -13397,7 +13406,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="14">
         <v>-11</v>
       </c>
@@ -13408,7 +13417,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="14">
         <v>-3</v>
       </c>
@@ -13419,7 +13428,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -13446,7 +13455,7 @@
         <v>+5-45 Attack power</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="14">
         <v>63</v>
       </c>
@@ -13473,7 +13482,7 @@
         <v>On Attack: Decrease target movement speed by 0.01-0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="14">
         <v>62</v>
       </c>
@@ -13500,7 +13509,7 @@
         <v>On Attack: Decrease target attack speed by 0.02-0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="14">
         <v>61</v>
       </c>
@@ -13527,7 +13536,7 @@
         <v>On Attack: Decrease target armor by 1-6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="14">
         <v>60</v>
       </c>
@@ -13554,7 +13563,7 @@
         <v>On Attack: Decrease target attack accuracy by 0.03-0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="14">
         <v>64</v>
       </c>
@@ -13581,7 +13590,7 @@
         <v>On Attack: Decrease target damage and healing dealt by 0.01-0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="14">
         <v>59</v>
       </c>
@@ -13608,7 +13617,7 @@
         <v>On Attack: Decrease target healing taken by 0.11-0.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="14">
         <v>-11</v>
       </c>
@@ -13619,7 +13628,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="14">
         <v>-3</v>
       </c>
@@ -13630,7 +13639,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="14">
         <v>1</v>
       </c>
@@ -13657,7 +13666,7 @@
         <v>-0.01-0.06 All damage taken</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="14">
         <v>3</v>
       </c>
@@ -13684,7 +13693,7 @@
         <v>+0.01-0.06 Damage and healing dealt</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -13711,7 +13720,7 @@
         <v>+12-60 Movement speed</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="14">
         <v>4</v>
       </c>
@@ -13738,7 +13747,7 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="14">
         <v>40</v>
       </c>
@@ -13765,7 +13774,7 @@
         <v>Regens MP from 0.01-0.06 of the damage taken</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -13792,7 +13801,7 @@
         <v>Use: Teleports to an ally0-0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="F29" s="40" t="s">
         <v>44</v>
       </c>
@@ -13800,7 +13809,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="14">
         <v>-11</v>
       </c>
@@ -13811,7 +13820,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="14">
         <v>-3</v>
       </c>
@@ -13822,7 +13831,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="14">
         <v>7</v>
       </c>
@@ -13849,7 +13858,7 @@
         <v>+4-21 All stats</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="14">
         <v>9</v>
       </c>
@@ -13876,7 +13885,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="14">
         <v>12</v>
       </c>
@@ -13903,7 +13912,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="14" customFormat="1">
       <c r="A36" s="14">
         <v>44</v>
       </c>
@@ -13930,7 +13939,7 @@
         <v>+0.02-0.12 Life stolen per hit</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="14" customFormat="1">
       <c r="A37" s="14">
         <v>50</v>
       </c>
@@ -13957,7 +13966,7 @@
         <v>On Attack: 15% chance to cast poison nova, dealing 18-69 magical damage over time to all enemies within 600 yards</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="14" customFormat="1">
       <c r="F38" s="40" t="s">
         <v>44</v>
       </c>
@@ -13965,7 +13974,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="14" customFormat="1">
       <c r="A39" s="14">
         <v>-11</v>
       </c>
@@ -13976,11 +13985,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="14" customFormat="1">
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="14" customFormat="1">
       <c r="A41" s="14">
         <v>-3</v>
       </c>
@@ -13991,7 +14000,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="14" customFormat="1">
       <c r="A42" s="14">
         <v>13</v>
       </c>
@@ -14018,7 +14027,7 @@
         <v>+5-30 Agility</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="14" customFormat="1">
       <c r="A43" s="14">
         <v>9</v>
       </c>
@@ -14045,7 +14054,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="14" customFormat="1">
       <c r="A44" s="14">
         <v>12</v>
       </c>
@@ -14072,7 +14081,7 @@
         <v>+3-15% Attack speed</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="14" customFormat="1">
       <c r="A45" s="14">
         <v>11</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="14" customFormat="1">
       <c r="A46" s="14">
         <v>47</v>
       </c>
@@ -14126,7 +14135,7 @@
         <v>On Attack: 0.05-0.3 chance to knock back target</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="14" customFormat="1">
       <c r="A47" s="14">
         <v>-11</v>
       </c>
@@ -14137,11 +14146,11 @@
         <v>856</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="14" customFormat="1">
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="14" customFormat="1">
       <c r="A49" s="14">
         <v>-3</v>
       </c>
@@ -14152,7 +14161,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="14" customFormat="1">
       <c r="A50" s="14">
         <v>4</v>
       </c>
@@ -14179,7 +14188,7 @@
         <v>+6-36 Strength</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="14" customFormat="1">
       <c r="A51" s="14">
         <v>9</v>
       </c>
@@ -14206,7 +14215,7 @@
         <v>+6-36 Attack power</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="14" customFormat="1">
       <c r="A52" s="14">
         <v>11</v>
       </c>
@@ -14233,7 +14242,7 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="14" customFormat="1">
       <c r="A53" s="14">
         <v>74</v>
       </c>
@@ -14260,7 +14269,7 @@
         <v>Lost 3-90 HP per second during combat</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="14" customFormat="1">
       <c r="A54" s="14">
         <v>44</v>
       </c>
@@ -14287,7 +14296,7 @@
         <v>+0.03-0.18 Life stolen per hit</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="14" customFormat="1">
       <c r="A55" s="14">
         <v>46</v>
       </c>
@@ -14314,7 +14323,7 @@
         <v>On Attack: Increase attack speed by 1% per attack, stacks up to 0.04-0.18, lasts for 3 seconds</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="14" customFormat="1">
       <c r="A56" s="14">
         <v>37</v>
       </c>
@@ -14341,7 +14350,7 @@
         <v>Use: Increase attack speed by 100%, take 0.05-1.5 extra damage (unique)</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="14" customFormat="1">
       <c r="F57" s="40" t="s">
         <v>44</v>
       </c>
@@ -14349,7 +14358,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="14" customFormat="1">
       <c r="A58" s="14">
         <v>-11</v>
       </c>
@@ -14360,11 +14369,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="14" customFormat="1">
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="14">
         <v>-3</v>
       </c>
@@ -14375,7 +14384,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="14">
         <v>8</v>
       </c>
@@ -14402,7 +14411,7 @@
         <v>+2-9 Armor</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="14">
         <v>1</v>
       </c>
@@ -14429,7 +14438,7 @@
         <v>-0.01-0.06 All damage taken</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="14">
         <v>2</v>
       </c>
@@ -14456,7 +14465,7 @@
         <v>-0.02-0.12 magical damage taken</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="14">
         <v>24</v>
       </c>
@@ -14483,7 +14492,7 @@
         <v>+12-72 Movement speed</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="14">
         <v>42</v>
       </c>
@@ -14510,7 +14519,7 @@
         <v>On Healed: Charges 1 holy power, stacks up to 2-15 points</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="14">
         <v>38</v>
       </c>
@@ -14537,7 +14546,7 @@
         <v>Use: Release all holy power to heal yourself, each point heals 25-105 HP</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="F67" s="40" t="s">
         <v>44</v>
       </c>
@@ -14545,7 +14554,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="14">
         <v>-11</v>
       </c>
@@ -14556,7 +14565,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="14">
         <v>-3</v>
       </c>
@@ -14567,7 +14576,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="14">
         <v>14</v>
       </c>
@@ -14594,7 +14603,7 @@
         <v>+5-30 Intelligence</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="14">
         <v>21</v>
       </c>
@@ -14621,7 +14630,7 @@
         <v>+100-600 Max HP</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="14">
         <v>18</v>
       </c>
@@ -14648,7 +14657,7 @@
         <v>+5-30 Spell power</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="14">
         <v>82</v>
       </c>
@@ -14675,7 +14684,7 @@
         <v>Grant Aura of Conviction: All enemies within 600 yards take 0.01-0.06 more magical damage</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="14">
         <v>89</v>
       </c>
@@ -14702,7 +14711,7 @@
         <v>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing 60-300 magical damage</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="F76" s="40" t="s">
         <v>44</v>
       </c>
@@ -14710,7 +14719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="14">
         <v>-11</v>
       </c>
@@ -14721,7 +14730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="14" customFormat="1">
       <c r="A79" s="14">
         <v>-3</v>
       </c>
@@ -14732,7 +14741,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="14" customFormat="1">
       <c r="A80" s="14">
         <v>14</v>
       </c>
@@ -14759,7 +14768,7 @@
         <v>+5-30 Intelligence</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="14" customFormat="1">
       <c r="A81" s="14">
         <v>18</v>
       </c>
@@ -14786,7 +14795,7 @@
         <v>+5-30 Spell power</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="14" customFormat="1">
       <c r="A82" s="14">
         <v>19</v>
       </c>
@@ -14813,7 +14822,7 @@
         <v>+0.03-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="14" customFormat="1">
       <c r="A83" s="14">
         <v>68</v>
       </c>
@@ -14840,7 +14849,7 @@
         <v>Converts your normal attacks into magical damage0-0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="14" customFormat="1">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -14867,7 +14876,7 @@
         <v>Grant Aura of Meditation: All allies within 600 yards regen 2-12 MP per second</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="14" customFormat="1">
       <c r="F85" s="40" t="s">
         <v>44</v>
       </c>
@@ -14875,7 +14884,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="14" customFormat="1">
       <c r="A86" s="14">
         <v>-11</v>
       </c>
@@ -14886,11 +14895,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="14" customFormat="1">
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="14" customFormat="1">
       <c r="A88" s="14">
         <v>-3</v>
       </c>
@@ -14901,7 +14910,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="14" customFormat="1">
       <c r="A89" s="14">
         <v>14</v>
       </c>
@@ -14928,7 +14937,7 @@
         <v>+5-30 Intelligence</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="14" customFormat="1">
       <c r="A90" s="14">
         <v>19</v>
       </c>
@@ -14955,7 +14964,7 @@
         <v>+0.03-0.15 Spell haste</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="14" customFormat="1">
       <c r="A91" s="14">
         <v>88</v>
       </c>
@@ -14982,7 +14991,7 @@
         <v>Dealing Magical Damage: 10% chance to poison target, dealing 12-60 magical damage over time</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="14" customFormat="1">
       <c r="A92" s="14">
         <v>32</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>Use: Deals 15-90 magical damage to all enemies within range over time</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="14" customFormat="1">
       <c r="A93" s="14">
         <v>98</v>
       </c>
@@ -15036,7 +15045,7 @@
         <v>Rise of Zandalari set</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="14" customFormat="1">
       <c r="F94" s="40" t="s">
         <v>44</v>
       </c>
@@ -15044,7 +15053,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="14" customFormat="1">
       <c r="A95" s="14">
         <v>-11</v>
       </c>
@@ -15055,11 +15064,11 @@
         <v>857</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="14" customFormat="1">
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
     </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="14" customFormat="1">
       <c r="A97" s="14">
         <v>-3</v>
       </c>
@@ -15070,7 +15079,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="14" customFormat="1">
       <c r="A98" s="14">
         <v>4</v>
       </c>
@@ -15097,7 +15106,7 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="14" customFormat="1">
       <c r="A99" s="14">
         <v>57</v>
       </c>
@@ -15124,7 +15133,7 @@
         <v>Deals 10-60 extra magical damage per hit</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="14" customFormat="1">
       <c r="A100" s="14">
         <v>43</v>
       </c>
@@ -15151,7 +15160,7 @@
         <v>+0.02-0.12 Mana stolen per hit</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="14" customFormat="1">
       <c r="A101" s="14">
         <v>75</v>
       </c>
@@ -15178,7 +15187,7 @@
         <v>Every Third Attack: Consumes 5% of max MP, deals 30-180 magical damage to all enemies nearby</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="14" customFormat="1">
       <c r="A102" s="14">
         <v>49</v>
       </c>
@@ -15205,7 +15214,7 @@
         <v>On Attack: 10% chance to consume 5% of max MP, deals 100-750 magical damage to all enemies in a row</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="14" customFormat="1">
       <c r="A103" s="14">
         <v>-11</v>
       </c>
@@ -15216,7 +15225,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="14">
         <v>-3</v>
       </c>
@@ -15224,7 +15233,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="14">
         <v>21</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>+100-600 Max HP</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="14">
         <v>14</v>
       </c>
@@ -15278,7 +15287,7 @@
         <v>+5-30 Intelligence</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="14">
         <v>20</v>
       </c>
@@ -15305,7 +15314,7 @@
         <v>+0.03-0.15 Spell critical</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="14">
         <v>99</v>
       </c>
@@ -15332,7 +15341,7 @@
         <v>Dealing Magical Damage: 10% chance to cast Arcane Missile, dealing 120-810 magical damage</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="14">
         <v>98</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>Rise of Zandalari set</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="14">
         <v>-3</v>
       </c>
@@ -15367,7 +15376,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="14">
         <v>24</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>+100-300 Movement speed</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="14">
         <v>71</v>
       </c>
@@ -15421,7 +15430,7 @@
         <v>Absorb 3000-9000 HP from all enemies nearby every second</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="14">
         <v>-3</v>
       </c>
@@ -15429,7 +15438,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="14">
         <v>13</v>
       </c>
@@ -15456,7 +15465,7 @@
         <v>+5-30 Agility</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="14">
         <v>21</v>
       </c>
@@ -15483,7 +15492,7 @@
         <v>+75-450 Max HP</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="14" customFormat="1">
       <c r="A119" s="14">
         <v>11</v>
       </c>
@@ -15510,7 +15519,7 @@
         <v>+0.03-0.15 Attack critical</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="14">
         <v>57</v>
       </c>
@@ -15537,7 +15546,7 @@
         <v>Deals 10-90 extra magical damage per hit</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="14">
         <v>89</v>
       </c>
@@ -15564,7 +15573,7 @@
         <v>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing 50-360 magical damage</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="14">
         <v>62</v>
       </c>
@@ -15591,7 +15600,7 @@
         <v>On Attack: Decrease target attack speed by 0.03-0.21</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="26">
         <v>-2</v>
       </c>
@@ -15606,7 +15615,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="26">
         <v>17</v>
       </c>
@@ -15632,7 +15641,7 @@
         <v>+100-600 Max MP</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="26">
         <v>21</v>
       </c>
@@ -15658,7 +15667,7 @@
         <v>+100-600 Max HP</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="26">
         <v>1</v>
       </c>
@@ -15684,7 +15693,7 @@
         <v>-0.01-0.06 All damage taken</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="26">
         <v>97</v>
       </c>
@@ -15708,7 +15717,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="25.5">
       <c r="A129" s="26">
         <v>-11</v>
       </c>
@@ -15723,7 +15732,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
       <c r="C130" s="26"/>
@@ -15732,7 +15741,7 @@
       <c r="F130" s="29"/>
       <c r="G130" s="39"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="26">
         <v>-2</v>
       </c>
@@ -15747,7 +15756,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="26">
         <v>9</v>
       </c>
@@ -15774,7 +15783,7 @@
         <v>+10-60 Attack power</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="26">
         <v>24</v>
       </c>
@@ -15800,7 +15809,7 @@
         <v>+11-51 Movement speed</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="26">
         <v>67</v>
       </c>
@@ -15826,7 +15835,7 @@
         <v>Deals 0.05-0.27 extra damage to non-hero targets</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="26">
         <v>97</v>
       </c>
@@ -15850,7 +15859,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="25.5">
       <c r="A136" s="26">
         <v>-11</v>
       </c>
@@ -15865,7 +15874,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
@@ -15874,7 +15883,7 @@
       <c r="F137" s="29"/>
       <c r="G137" s="39"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="26">
         <v>-3</v>
       </c>
@@ -15889,7 +15898,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="26">
         <v>9</v>
       </c>
@@ -15916,7 +15925,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="25.5">
       <c r="A140" s="26">
         <v>52</v>
       </c>
@@ -15942,7 +15951,7 @@
         <v>On Attack: 20% chance to deal 26-144 bleed damage</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="25.5">
       <c r="A141" s="26">
         <v>55</v>
       </c>
@@ -15968,7 +15977,7 @@
         <v>On Attack: 0.05-0.3 chance to increase 100% attack critical chance</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="26">
         <v>12</v>
       </c>
@@ -15997,7 +16006,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="26">
         <v>97</v>
       </c>
@@ -16021,7 +16030,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="26">
         <v>-11</v>
       </c>
@@ -16036,7 +16045,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
       <c r="C145" s="26"/>
@@ -16045,7 +16054,7 @@
       <c r="F145" s="29"/>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="26">
         <v>-3</v>
       </c>
@@ -16060,7 +16069,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="26">
         <v>4</v>
       </c>
@@ -16086,7 +16095,7 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="25.5">
       <c r="A148" s="26">
         <v>71</v>
       </c>
@@ -16112,7 +16121,7 @@
         <v>Absorb 7-36 HP from all enemies nearby every second</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="26">
         <v>43</v>
       </c>
@@ -16141,7 +16150,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="25.5">
       <c r="A150" s="26">
         <v>58</v>
       </c>
@@ -16170,7 +16179,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="26">
         <v>97</v>
       </c>
@@ -16194,7 +16203,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="26">
         <v>-11</v>
       </c>
@@ -16221,11 +16230,11 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="26" bestFit="1" customWidth="1"/>
@@ -16237,7 +16246,7 @@
     <col min="16" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="14" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>531</v>
       </c>
@@ -16250,7 +16259,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="25.5">
       <c r="A2" s="21" t="s">
         <v>635</v>
       </c>
@@ -16273,7 +16282,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="34" t="s">
@@ -16283,7 +16292,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="26">
         <v>51</v>
       </c>
@@ -16312,7 +16321,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="26">
         <v>7</v>
       </c>
@@ -16342,7 +16351,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25.5">
       <c r="A6" s="26">
         <v>85</v>
       </c>
@@ -16371,7 +16380,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="34" t="s">
@@ -16381,7 +16390,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="25.5">
       <c r="A39" s="26">
         <v>73</v>
       </c>
@@ -16410,7 +16419,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="26">
         <v>21</v>
       </c>
@@ -16440,7 +16449,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="25.5">
       <c r="A41" s="26">
         <v>2</v>
       </c>
@@ -16485,7 +16494,7 @@
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
     <col min="2" max="2" width="2" style="14" customWidth="1"/>
@@ -16501,7 +16510,7 @@
     <col min="14" max="16384" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="35" customFormat="1">
       <c r="A1" s="84" t="s">
         <v>1004</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="78" t="s">
         <v>93</v>
       </c>
@@ -16560,7 +16569,7 @@
       </c>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="78" t="s">
         <v>97</v>
       </c>
@@ -16579,7 +16588,7 @@
       <c r="H3" s="69"/>
       <c r="I3" s="76"/>
     </row>
-    <row r="4" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="83" customFormat="1">
       <c r="A4" s="80" t="s">
         <v>100</v>
       </c>
@@ -16620,7 +16629,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="83" customFormat="1">
       <c r="A5" s="80" t="s">
         <v>103</v>
       </c>
@@ -16661,7 +16670,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="83" customFormat="1">
       <c r="A6" s="80" t="s">
         <v>106</v>
       </c>
@@ -16684,7 +16693,7 @@
       <c r="H6" s="71"/>
       <c r="I6" s="82"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="78" t="s">
         <v>109</v>
       </c>
@@ -16703,7 +16712,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="78" t="s">
         <v>112</v>
       </c>
@@ -16724,7 +16733,7 @@
       </c>
       <c r="I8" s="76"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="78" t="s">
         <v>116</v>
       </c>
@@ -16743,7 +16752,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="76"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="78" t="s">
         <v>119</v>
       </c>
@@ -16762,7 +16771,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="76"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="78" t="s">
         <v>122</v>
       </c>
@@ -16783,7 +16792,7 @@
       </c>
       <c r="I11" s="76"/>
     </row>
-    <row r="12" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="83" customFormat="1">
       <c r="A12" s="80" t="s">
         <v>126</v>
       </c>
@@ -16825,7 +16834,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="83" customFormat="1">
       <c r="A13" s="80" t="s">
         <v>130</v>
       </c>
@@ -16848,7 +16857,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="82"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="78" t="s">
         <v>133</v>
       </c>
@@ -16869,7 +16878,7 @@
       </c>
       <c r="I14" s="76"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="78" t="s">
         <v>137</v>
       </c>
@@ -16888,7 +16897,7 @@
       <c r="H15" s="70"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="78" t="s">
         <v>140</v>
       </c>
@@ -16909,7 +16918,7 @@
       </c>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="78" t="s">
         <v>144</v>
       </c>
@@ -16930,7 +16939,7 @@
       </c>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
       <c r="C18" s="76"/>
@@ -16941,7 +16950,7 @@
       <c r="H18" s="69"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="76" t="s">
         <v>148</v>
       </c>
@@ -16960,7 +16969,7 @@
       <c r="H19" s="69"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="76" t="s">
         <v>150</v>
       </c>
@@ -16979,7 +16988,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="78" t="s">
         <v>152</v>
       </c>
@@ -16998,7 +17007,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="78" t="s">
         <v>154</v>
       </c>
@@ -17017,7 +17026,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="78" t="s">
         <v>156</v>
       </c>
@@ -17036,7 +17045,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="78" t="s">
         <v>158</v>
       </c>
@@ -17055,7 +17064,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="78" t="s">
         <v>160</v>
       </c>
@@ -17074,7 +17083,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="78" t="s">
         <v>162</v>
       </c>
@@ -17093,7 +17102,7 @@
       <c r="H26" s="69"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="78" t="s">
         <v>164</v>
       </c>
@@ -17112,7 +17121,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="78" t="s">
         <v>166</v>
       </c>
@@ -17131,7 +17140,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="78" t="s">
         <v>168</v>
       </c>
@@ -17150,7 +17159,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="78" t="s">
         <v>170</v>
       </c>
@@ -17169,7 +17178,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="76"/>
       <c r="B31" s="77"/>
       <c r="C31" s="76"/>
@@ -17180,7 +17189,7 @@
       <c r="H31" s="69"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="78" t="s">
         <v>172</v>
       </c>
@@ -17199,7 +17208,7 @@
       <c r="H32" s="69"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="78" t="s">
         <v>174</v>
       </c>
@@ -17218,7 +17227,7 @@
       <c r="H33" s="69"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="78" t="s">
         <v>176</v>
       </c>
@@ -17237,7 +17246,7 @@
       <c r="H34" s="69"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="78" t="s">
         <v>178</v>
       </c>
@@ -17256,7 +17265,7 @@
       <c r="H35" s="69"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="83" customFormat="1">
       <c r="A36" s="80" t="s">
         <v>180</v>
       </c>
@@ -17297,7 +17306,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="78" t="s">
         <v>182</v>
       </c>
@@ -17316,7 +17325,7 @@
       <c r="H37" s="69"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="76"/>
       <c r="B38" s="77"/>
       <c r="C38" s="76"/>
@@ -17327,7 +17336,7 @@
       <c r="H38" s="69"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="78" t="s">
         <v>184</v>
       </c>
@@ -17346,7 +17355,7 @@
       <c r="H39" s="69"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="78" t="s">
         <v>186</v>
       </c>
@@ -17365,7 +17374,7 @@
       <c r="H40" s="69"/>
       <c r="I40" s="76"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="78" t="s">
         <v>188</v>
       </c>
@@ -17384,7 +17393,7 @@
       <c r="H41" s="69"/>
       <c r="I41" s="76"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="76"/>
       <c r="B42" s="77"/>
       <c r="C42" s="76"/>
@@ -17395,7 +17404,7 @@
       <c r="H42" s="69"/>
       <c r="I42" s="76"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="78" t="s">
         <v>190</v>
       </c>
@@ -17414,7 +17423,7 @@
       <c r="H43" s="69"/>
       <c r="I43" s="76"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="78" t="s">
         <v>193</v>
       </c>
@@ -17433,7 +17442,7 @@
       <c r="H44" s="69"/>
       <c r="I44" s="76"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="78" t="s">
         <v>196</v>
       </c>
@@ -17452,7 +17461,7 @@
       <c r="H45" s="69"/>
       <c r="I45" s="76"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="76"/>
       <c r="B46" s="77"/>
       <c r="C46" s="76"/>
@@ -17463,7 +17472,7 @@
       <c r="H46" s="69"/>
       <c r="I46" s="76"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="78" t="s">
         <v>198</v>
       </c>
@@ -17482,7 +17491,7 @@
       <c r="H47" s="69"/>
       <c r="I47" s="76"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="78" t="s">
         <v>200</v>
       </c>
@@ -17501,7 +17510,7 @@
       <c r="H48" s="69"/>
       <c r="I48" s="76"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="78" t="s">
         <v>202</v>
       </c>
@@ -17520,7 +17529,7 @@
       <c r="H49" s="69"/>
       <c r="I49" s="76"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="78"/>
       <c r="B50" s="79"/>
       <c r="C50" s="78"/>
@@ -17531,7 +17540,7 @@
       <c r="H50" s="69"/>
       <c r="I50" s="76"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="78" t="s">
         <v>204</v>
       </c>
@@ -17552,7 +17561,7 @@
       <c r="H51" s="69"/>
       <c r="I51" s="76"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="78" t="s">
         <v>208</v>
       </c>
@@ -17573,7 +17582,7 @@
       <c r="H52" s="69"/>
       <c r="I52" s="76"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="78" t="s">
         <v>212</v>
       </c>
@@ -17594,7 +17603,7 @@
       <c r="H53" s="69"/>
       <c r="I53" s="76"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="78" t="s">
         <v>215</v>
       </c>
@@ -17615,7 +17624,7 @@
       <c r="H54" s="69"/>
       <c r="I54" s="76"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="78" t="s">
         <v>218</v>
       </c>
@@ -17636,7 +17645,7 @@
       <c r="H55" s="69"/>
       <c r="I55" s="76"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="78" t="s">
         <v>221</v>
       </c>
@@ -17657,7 +17666,7 @@
       <c r="H56" s="69"/>
       <c r="I56" s="76"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="78" t="s">
         <v>224</v>
       </c>
@@ -17678,7 +17687,7 @@
       <c r="H57" s="69"/>
       <c r="I57" s="76"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="78" t="s">
         <v>228</v>
       </c>
@@ -17701,7 +17710,7 @@
       </c>
       <c r="I58" s="76"/>
     </row>
-    <row r="59" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="83" customFormat="1">
       <c r="A59" s="80" t="s">
         <v>233</v>
       </c>
@@ -17726,7 +17735,7 @@
       </c>
       <c r="I59" s="82"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="76"/>
       <c r="B60" s="77"/>
       <c r="C60" s="76"/>
@@ -17737,7 +17746,7 @@
       <c r="H60" s="69"/>
       <c r="I60" s="76"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="78"/>
       <c r="B61" s="79"/>
       <c r="C61" s="78"/>
@@ -17748,7 +17757,7 @@
       <c r="H61" s="69"/>
       <c r="I61" s="76"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="78"/>
       <c r="B62" s="79"/>
       <c r="C62" s="78"/>
@@ -17759,7 +17768,7 @@
       <c r="H62" s="69"/>
       <c r="I62" s="76"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="78"/>
       <c r="B63" s="79"/>
       <c r="C63" s="78"/>
@@ -17770,7 +17779,7 @@
       <c r="H63" s="69"/>
       <c r="I63" s="76"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="78"/>
       <c r="B64" s="79"/>
       <c r="C64" s="78"/>
@@ -17781,7 +17790,7 @@
       <c r="H64" s="69"/>
       <c r="I64" s="76"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="78"/>
       <c r="B65" s="79"/>
       <c r="C65" s="78"/>
@@ -17792,7 +17801,7 @@
       <c r="H65" s="69"/>
       <c r="I65" s="76"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="78"/>
       <c r="B66" s="79"/>
       <c r="C66" s="78"/>
@@ -17803,7 +17812,7 @@
       <c r="H66" s="69"/>
       <c r="I66" s="76"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="78"/>
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
@@ -17814,7 +17823,7 @@
       <c r="H67" s="69"/>
       <c r="I67" s="76"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="78"/>
       <c r="B68" s="79"/>
       <c r="C68" s="78"/>
@@ -17825,7 +17834,7 @@
       <c r="H68" s="69"/>
       <c r="I68" s="76"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="78"/>
       <c r="B69" s="79"/>
       <c r="C69" s="78"/>
@@ -17838,11 +17847,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -17856,10 +17865,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="14" bestFit="1" customWidth="1"/>
@@ -17872,7 +17881,7 @@
     <col min="21" max="16384" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="89" t="s">
         <v>522</v>
       </c>
@@ -17885,7 +17894,7 @@
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>523</v>
@@ -17921,7 +17930,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="68" t="str">
         <f>Rare!G3</f>
         <v>Maul of Warlord</v>
@@ -17971,7 +17980,7 @@
         <v>boss7.add(ITID_MAUL_OF_WARLORD, 3);</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="68" t="str">
         <f>Rare!G7</f>
         <v>Cloak of Stealth</v>
@@ -18018,7 +18027,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="68" t="str">
         <f>Rare!G11</f>
         <v>Scepter of Archon</v>
@@ -18065,7 +18074,7 @@
         <v>boss7.add(ITID_SCEPTER_OF_ARCHON, 3);</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="68" t="str">
         <f>Rare!G15</f>
         <v>Colossus Blade</v>
@@ -18112,7 +18121,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="68" t="str">
         <f>Rare!G20</f>
         <v>The X Ring</v>
@@ -18159,7 +18168,7 @@
         <v>boss7.add(ITID_THE_X_RING, 8);</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="68" t="str">
         <f>Rare!G24</f>
         <v>Goblin Rocket Boots Limited Edition</v>
@@ -18206,7 +18215,7 @@
         <v>boss7.add(ITID_GOBLIN_ROCKET_BOOTS_LIMITED_EDITION, 3);</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="67" t="str">
         <f>Rare!G31</f>
         <v>Warsong Battle Drums</v>
@@ -18253,7 +18262,7 @@
         <v>boss7.add(ITID_WARSONG_BATTLE_DRUMS, 3);</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="67" t="str">
         <f>Rare!G36</f>
         <v>Troll Bane</v>
@@ -18300,7 +18309,7 @@
         <v>boss7.add(ITID_TROLL_BANE, 8);</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="67" t="str">
         <f>Rare!G42</f>
         <v>Gorehowl</v>
@@ -18347,7 +18356,7 @@
         <v>boss7.add(ITID_GOREHOWL, 8);</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="67" t="str">
         <f>Rare!G48</f>
         <v>Core Hound Tooth</v>
@@ -18397,7 +18406,7 @@
         <v>boss7.add(ITID_CORE_HOUND_TOOTH, 3);</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="67" t="str">
         <f>Rare!G53</f>
         <v>Vis'kag</v>
@@ -18444,7 +18453,7 @@
         <v>boss7.add(ITID_VISKAG, 6);</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="67" t="str">
         <f>Rare!G59</f>
         <v>Lion Horn</v>
@@ -18491,7 +18500,7 @@
         <v>boss7.add(ITID_LION_HORN, 3);</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="67" t="str">
         <f>Rare!G65</f>
         <v>Armor of the Damned</v>
@@ -18541,7 +18550,7 @@
         <v>boss7.add(ITID_ARMOR_OF_THE_DAMNED, 3);</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="67" t="str">
         <f>Rare!G72</f>
         <v>Bulwark of the Amani Empire</v>
@@ -18588,7 +18597,7 @@
         <v>boss7.add(ITID_BULWARK_OF_THE_AMANI_EMPIRE, 3);</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="67" t="str">
         <f>Rare!G91</f>
         <v>Signet of the Last Defender</v>
@@ -18638,7 +18647,7 @@
         <v>boss7.add(ITID_SIGNET_OF_THE_LAST_DEFENDER, 3);</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="67" t="str">
         <f>Rare!G97</f>
         <v>Aran's Soothing Emerald</v>
@@ -18688,7 +18697,7 @@
         <v>boss7.add(ITID_ARANS_SOOTHING_EMERALD, 3);</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="67" t="str">
         <f>Rare!G103</f>
         <v>Pure Arcane</v>
@@ -18735,7 +18744,7 @@
         <v>boss7.add(ITID_PURE_ARCANE, 3);</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="67" t="str">
         <f>Rare!G107</f>
         <v>Hex Shrunken Head</v>
@@ -18785,7 +18794,7 @@
         <v>boss7.add(ITID_HEX_SHRUNKEN_HEAD, 1);</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="67" t="str">
         <f>Rare!G113</f>
         <v>Staff of the Shadow Flame</v>
@@ -18832,7 +18841,7 @@
         <v>boss7.add(ITID_STAFF_OF_THE_SHADOW_FLAME, 3);</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="67" t="str">
         <f>Rare!G119</f>
         <v>Tidal Loop</v>
@@ -18879,7 +18888,7 @@
         <v>boss7.add(ITID_TIDAL_LOOP, 8);</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="68" t="str">
         <f>Rare!G125</f>
         <v>Eagle God Gauntlets</v>
@@ -18926,7 +18935,7 @@
         <v>boss7.add(ITID_EAGLE_GOD_GAUNTLETS, 8);</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="68" t="str">
         <f>Rare!G130</f>
         <v>Moonstone</v>
@@ -18973,7 +18982,7 @@
         <v>boss7.add(ITID_MOONSTONE, 8);</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="68" t="str">
         <f>Rare!G135</f>
         <v>Shadow Orb</v>
@@ -19017,7 +19026,7 @@
         <v>boss7.add(ITID_SHADOW_ORB, 3);</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="67" t="str">
         <f>Rare!G79</f>
         <v>Shining Jewel of Tanaris</v>
@@ -19044,7 +19053,7 @@
         <v>boss7.add(ITID_SHINING_JEWEL_OF_TANARIS, 3);</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="67" t="str">
         <f>Rare!G85</f>
         <v>Drakkari Decapitator</v>
@@ -19070,7 +19079,7 @@
         <v>boss7.add(ITID_DRAKKARI_DECAPITATOR, 3);</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="B28" s="14">
         <f>SUM(B3:B27)</f>
         <v>100</v>
@@ -19119,7 +19128,7 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" bestFit="1" customWidth="1"/>
@@ -19128,7 +19137,7 @@
     <col min="5" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>303</v>
       </c>
@@ -19142,7 +19151,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
         <v>321</v>
       </c>
@@ -19154,7 +19163,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="12"/>
       <c r="B3" s="13">
         <v>2</v>
@@ -19164,7 +19173,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="13">
         <v>3</v>
@@ -19174,7 +19183,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="12"/>
       <c r="B5" s="13">
         <v>4</v>
@@ -19184,7 +19193,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="13">
         <v>5</v>
@@ -19194,7 +19203,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="12" t="s">
         <v>322</v>
       </c>
@@ -19206,7 +19215,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="7">
         <v>2</v>
@@ -19216,7 +19225,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="7">
         <v>3</v>
@@ -19226,7 +19235,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="7">
         <v>4</v>
@@ -19236,7 +19245,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="12"/>
       <c r="B11" s="7">
         <v>5</v>
@@ -19246,7 +19255,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="12" t="s">
         <v>323</v>
       </c>
@@ -19258,7 +19267,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="13">
         <v>2</v>
@@ -19268,7 +19277,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="13">
         <v>3</v>
@@ -19278,7 +19287,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="12"/>
       <c r="B15" s="13">
         <v>4</v>
@@ -19288,7 +19297,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="13">
         <v>5</v>
@@ -19298,7 +19307,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
         <v>274</v>
       </c>
@@ -19310,7 +19319,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="7">
         <v>2</v>
@@ -19320,7 +19329,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="7">
         <v>3</v>
@@ -19330,7 +19339,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="7">
         <v>4</v>
@@ -19340,7 +19349,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="7">
         <v>5</v>
@@ -19352,7 +19361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
         <v>304</v>
       </c>
@@ -19364,7 +19373,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="12"/>
       <c r="B23" s="7">
         <v>2</v>
@@ -19374,7 +19383,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="7">
         <v>3</v>
@@ -19384,7 +19393,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="7">
         <v>4</v>
@@ -19394,7 +19403,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="7">
         <v>5</v>
@@ -19406,7 +19415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
         <v>276</v>
       </c>
@@ -19420,7 +19429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="13">
         <v>2</v>
@@ -19432,7 +19441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="13">
         <v>3</v>
@@ -19444,7 +19453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="12"/>
       <c r="B30" s="13">
         <v>4</v>
@@ -19456,7 +19465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="13">
         <v>5</v>
@@ -19468,7 +19477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
         <v>277</v>
       </c>
@@ -19482,7 +19491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="12"/>
       <c r="B33" s="13">
         <v>2</v>
@@ -19494,7 +19503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="12"/>
       <c r="B34" s="13">
         <v>3</v>
@@ -19506,7 +19515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="12"/>
       <c r="B35" s="13">
         <v>4</v>
@@ -19518,7 +19527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="12"/>
       <c r="B36" s="13">
         <v>5</v>
@@ -19530,7 +19539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
         <v>314</v>
       </c>
@@ -19542,7 +19551,7 @@
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="12"/>
       <c r="B38" s="7">
         <v>2</v>
@@ -19552,7 +19561,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="12"/>
       <c r="B39" s="7">
         <v>3</v>
@@ -19562,7 +19571,7 @@
       </c>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="12"/>
       <c r="B40" s="7">
         <v>4</v>
@@ -19572,7 +19581,7 @@
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" s="12"/>
       <c r="B41" s="7">
         <v>5</v>

--- a/assets/data/Items.xlsx
+++ b/assets/data/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF12482-7F92-441B-AED9-38F7F99302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563B1DB-4516-4BF1-B887-778DC1D15469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1635" windowWidth="16560" windowHeight="18165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="15" r:id="rId1"/>
@@ -4070,7 +4070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4078,7 +4078,7 @@
     <col min="1" max="1" width="3" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="15" customWidth="1"/>
     <col min="5" max="19" width="7.7109375" style="15" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="15"/>
   </cols>
@@ -4838,8 +4838,8 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G100"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4848,7 +4848,7 @@
     <col min="2" max="2" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="95.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.5703125" style="14" customWidth="1"/>
@@ -7630,7 +7630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7639,7 +7639,7 @@
     <col min="2" max="3" width="5" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="45" customWidth="1"/>
-    <col min="6" max="6" width="40" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="26" customWidth="1"/>
     <col min="7" max="7" width="53" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
@@ -8860,9 +8860,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -8872,7 +8872,7 @@
     <col min="3" max="3" width="5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="49" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="26" customWidth="1"/>
     <col min="8" max="16384" width="14.42578125" style="14"/>
   </cols>
@@ -13203,7 +13203,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -13211,8 +13211,7 @@
     <col min="1" max="1" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="40" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="50.7109375" style="40" customWidth="1"/>
     <col min="8" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
@@ -16230,8 +16229,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -16240,7 +16239,7 @@
     <col min="2" max="3" width="5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" style="29" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="39" customWidth="1"/>
     <col min="8" max="15" width="17.28515625" style="15" customWidth="1"/>
     <col min="16" max="16384" width="14.42578125" style="15"/>
@@ -16491,7 +16490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -16499,11 +16498,11 @@
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
     <col min="2" max="2" width="2" style="14" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="26" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="83.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="15" customWidth="1"/>
     <col min="9" max="10" width="6" style="14" customWidth="1"/>
     <col min="11" max="12" width="3.5703125" style="14" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" style="14" customWidth="1"/>
@@ -17865,7 +17864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -19125,7 +19124,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="16.5"/>

--- a/assets/data/Items.xlsx
+++ b/assets/data/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563B1DB-4516-4BF1-B887-778DC1D15469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768746B5-15C5-4864-839E-EB8670C49F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="15" r:id="rId1"/>
@@ -2654,547 +2654,548 @@
     <t>A07D</t>
   </si>
   <si>
+    <t>B05O</t>
+  </si>
+  <si>
+    <t>A06A</t>
+  </si>
+  <si>
+    <t>B02W</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor is increased. </t>
+  </si>
+  <si>
+    <t>Paralysis Poison</t>
+  </si>
+  <si>
+    <t>Spell cast speed is decreased.</t>
+  </si>
+  <si>
+    <t>A0CR</t>
+  </si>
+  <si>
+    <t>B05N</t>
+  </si>
+  <si>
+    <t>Deranged</t>
+  </si>
+  <si>
+    <t>Attack speed is increased.</t>
+  </si>
+  <si>
+    <t>B03F</t>
+  </si>
+  <si>
+    <t>Power of Storm</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>B02R</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>Takes magical damage over time.</t>
+  </si>
+  <si>
+    <t>B00D</t>
+  </si>
+  <si>
+    <t>A02B</t>
+  </si>
+  <si>
+    <t>Death Coil</t>
+  </si>
+  <si>
+    <t>Takes increased damage.</t>
+  </si>
+  <si>
+    <t>B00J</t>
+  </si>
+  <si>
+    <t>A02C</t>
+  </si>
+  <si>
+    <t>Takes physical damage over time.</t>
+  </si>
+  <si>
+    <t>A02D</t>
+  </si>
+  <si>
+    <t>B00N</t>
+  </si>
+  <si>
+    <t>Attack critical chance is increased by 100%.</t>
+  </si>
+  <si>
+    <t>A0CQ</t>
+  </si>
+  <si>
+    <t>B05L</t>
+  </si>
+  <si>
+    <t>Rotten</t>
+  </si>
+  <si>
+    <t>Healing taken is decreased.</t>
+  </si>
+  <si>
+    <t>Attack speed is decreased.</t>
+  </si>
+  <si>
+    <t>Movement speed is decreased.</t>
+  </si>
+  <si>
+    <t>Attack power is decreased.</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target attack accuracy by #</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>A0CO</t>
+  </si>
+  <si>
+    <t>B05K</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>Attack accuracy is decreased.</t>
+  </si>
+  <si>
+    <t>A0CN</t>
+  </si>
+  <si>
+    <t>B05J</t>
+  </si>
+  <si>
+    <t>Fragile</t>
+  </si>
+  <si>
+    <t>Armor is decreased.</t>
+  </si>
+  <si>
+    <t>A0CM</t>
+  </si>
+  <si>
+    <t>B05I</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>A0CL</t>
+  </si>
+  <si>
+    <t>B05H</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>A0CP</t>
+  </si>
+  <si>
+    <t>B05M</t>
+  </si>
+  <si>
+    <t>Damage and healing dealt is decreased.</t>
+  </si>
+  <si>
+    <t>Weakened</t>
+  </si>
+  <si>
+    <t>A06O</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>Voodoo Poison</t>
+  </si>
+  <si>
+    <t>A06M</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>The Damned</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>B02S</t>
+  </si>
+  <si>
+    <t>Takes increased magical damage.</t>
+  </si>
+  <si>
+    <t>A07C</t>
+  </si>
+  <si>
+    <t>B03E</t>
+  </si>
+  <si>
+    <t>Warsong</t>
+  </si>
+  <si>
+    <t>Damage and healing dealt is increased, takes increased healing.</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>B02V</t>
+  </si>
+  <si>
+    <t>Call to Arms</t>
+  </si>
+  <si>
+    <t>Max HP is increased.</t>
+  </si>
+  <si>
+    <t>A06F</t>
+  </si>
+  <si>
+    <t>B02Z</t>
+  </si>
+  <si>
+    <t>Silver Crescent</t>
+  </si>
+  <si>
+    <t>Intelligence is increased.</t>
+  </si>
+  <si>
+    <t>A07E</t>
+  </si>
+  <si>
+    <t>B03G</t>
+  </si>
+  <si>
+    <t>Hex Power</t>
+  </si>
+  <si>
+    <t>Spell power is increased.</t>
+  </si>
+  <si>
+    <t>Dodge chance is increased.</t>
+  </si>
+  <si>
+    <t>Movement speed is increased.</t>
+  </si>
+  <si>
+    <t>A06K</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>A07A</t>
+  </si>
+  <si>
+    <t>B03C</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>A06P</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>Ancient Derangement</t>
+  </si>
+  <si>
+    <t>Attack speed is increased, takes increased damage.</t>
+  </si>
+  <si>
+    <t>On Attack: 10% chance to stun target for # seconds</t>
+  </si>
+  <si>
+    <t>Arthas Corruption set</t>
+  </si>
+  <si>
+    <t>SET_ARTHAS</t>
+  </si>
+  <si>
+    <t>On Attack: 15% chance to cast poison nova, dealing # magical damage over time to all enemies within 600 yards</t>
+  </si>
+  <si>
+    <t>On Attack: 10% chance to consume 5% of max MP, deals # magical damage to all enemies in a row</t>
+  </si>
+  <si>
+    <t>-# magical damage taken</t>
+  </si>
+  <si>
+    <t>Deals # extra magical damage per hit</t>
+  </si>
+  <si>
+    <t>Deals # extra magical damage per hit, scaled up by target HP lost</t>
+  </si>
+  <si>
+    <t>Converts your normal attacks into magical damage#</t>
+  </si>
+  <si>
+    <t>Every Third Attack: Consumes 5% of max MP, deals # magical damage to all enemies nearby</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% chance to poison target, dealing # magical damage over time</t>
+  </si>
+  <si>
+    <t>Magical Damage Critical: Charges with arcane power. All arcane power will be released automatically after 3 stacks, dealing # magical damage to target</t>
+  </si>
+  <si>
+    <t>Grant Aura of Conviction: All enemies within 600 yards take # more magical damage</t>
+  </si>
+  <si>
+    <t>Use: Deals # magical damage to all enemies within range over time</t>
+  </si>
+  <si>
+    <t>On Attack: # chance to increase 100% attack critical chance</t>
+  </si>
+  <si>
+    <t>On Attack: 15% chance to cast Death Coil</t>
+  </si>
+  <si>
+    <t>On Attack: 20% chance to deal # bleed damage</t>
+  </si>
+  <si>
+    <t>On Attack: 25% chance to deal # physical damage</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 15% chance to increase intelligence by #, lasts for 15 seconds</t>
+  </si>
+  <si>
+    <t>Eagle God Gauntlets</t>
+  </si>
+  <si>
+    <t>Moonstone</t>
+  </si>
+  <si>
+    <t>Shadow Orb</t>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Everlasting</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>吸蓝</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>of Vampire</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>of Succubus</t>
+  </si>
+  <si>
+    <t>0.01-0.02</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>ITID</t>
+  </si>
+  <si>
+    <t>Ubertip</t>
+  </si>
+  <si>
+    <t>Scroll of Frenzy</t>
+  </si>
+  <si>
+    <t>Scroll of Protection</t>
+  </si>
+  <si>
+    <t>Scroll of Mana</t>
+  </si>
+  <si>
+    <t>Scroll of Insulation</t>
+  </si>
+  <si>
+    <t>Scroll of Dispel</t>
+  </si>
+  <si>
+    <t>Potion of Invulnerability</t>
+  </si>
+  <si>
+    <t>Scroll of Energy</t>
+  </si>
+  <si>
+    <t>Use: All allies nearby takes 50% less damage. Lasts for 5 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Increase attack speed and spell haste by 30% for all allies nearby. Lasts for 15 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Replenish 30% mana for all allies nearby.</t>
+  </si>
+  <si>
+    <t>Use: Opens a barrier that will reflect all spell. Lasts for 10 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Dispel one buff or debuff from each enemy or ally within range every 2 second. Dispels 3 times.</t>
+  </si>
+  <si>
+    <t>Use: Decrease all damage taken by 100%. Lasts for 8 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Create an energy field at target area, all buffs and debuffs will no expire before the field fades. Lasts for 15 seconds.</t>
+  </si>
+  <si>
+    <t>FlavourText</t>
+  </si>
+  <si>
+    <t>A06U</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>Attack speed and spell haste are increased.</t>
+  </si>
+  <si>
+    <t>A06W</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>Damage taken is decreased.</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>B03B</t>
+  </si>
+  <si>
+    <t>Spell Reflection</t>
+  </si>
+  <si>
+    <t>Reflects all targeting spell.</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>B03Y</t>
+  </si>
+  <si>
+    <t>Shining Jewel of Tanaris</t>
+  </si>
+  <si>
+    <t>Rise of Zandalari set</t>
+  </si>
+  <si>
+    <t>SET_ZANDALARI</t>
+  </si>
+  <si>
+    <t>Drakkari Decapitator</t>
+  </si>
+  <si>
+    <t>Gurubashi Voodoo Vials</t>
+  </si>
+  <si>
+    <t>Rise of Zandalari</t>
+  </si>
+  <si>
+    <t>5 Items</t>
+  </si>
+  <si>
+    <t>Zul's Staff</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% chance to cast Arcane Missile, dealing # magical damage</t>
+  </si>
+  <si>
+    <t>MD_ARCANE</t>
+  </si>
+  <si>
+    <t>Maul of Warlord</t>
+  </si>
+  <si>
+    <t>Cloak of Stealth</t>
+  </si>
+  <si>
+    <t>Scepter of Archon</t>
+  </si>
+  <si>
+    <t>MC Sword</t>
+  </si>
+  <si>
+    <t>Thunderfury, Blessed Blade of the Windseeker</t>
+  </si>
+  <si>
+    <t>Breath of the Dying</t>
+  </si>
+  <si>
+    <t>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing # magical damage</t>
+  </si>
+  <si>
+    <t>Frostmourne</t>
+  </si>
+  <si>
     <t>A0CS</t>
-  </si>
-  <si>
-    <t>B05O</t>
-  </si>
-  <si>
-    <t>A06A</t>
-  </si>
-  <si>
-    <t>B02W</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armor is increased. </t>
-  </si>
-  <si>
-    <t>Paralysis Poison</t>
-  </si>
-  <si>
-    <t>Spell cast speed is decreased.</t>
-  </si>
-  <si>
-    <t>A0CR</t>
-  </si>
-  <si>
-    <t>B05N</t>
-  </si>
-  <si>
-    <t>Deranged</t>
-  </si>
-  <si>
-    <t>Attack speed is increased.</t>
-  </si>
-  <si>
-    <t>B03F</t>
-  </si>
-  <si>
-    <t>Power of Storm</t>
-  </si>
-  <si>
-    <t>A063</t>
-  </si>
-  <si>
-    <t>B02R</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>Bleed</t>
-  </si>
-  <si>
-    <t>Takes magical damage over time.</t>
-  </si>
-  <si>
-    <t>B00D</t>
-  </si>
-  <si>
-    <t>A02B</t>
-  </si>
-  <si>
-    <t>Death Coil</t>
-  </si>
-  <si>
-    <t>Takes increased damage.</t>
-  </si>
-  <si>
-    <t>B00J</t>
-  </si>
-  <si>
-    <t>A02C</t>
-  </si>
-  <si>
-    <t>Takes physical damage over time.</t>
-  </si>
-  <si>
-    <t>A02D</t>
-  </si>
-  <si>
-    <t>B00N</t>
-  </si>
-  <si>
-    <t>Attack critical chance is increased by 100%.</t>
-  </si>
-  <si>
-    <t>A0CQ</t>
-  </si>
-  <si>
-    <t>B05L</t>
-  </si>
-  <si>
-    <t>Rotten</t>
-  </si>
-  <si>
-    <t>Healing taken is decreased.</t>
-  </si>
-  <si>
-    <t>Attack speed is decreased.</t>
-  </si>
-  <si>
-    <t>Movement speed is decreased.</t>
-  </si>
-  <si>
-    <t>Attack power is decreased.</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target attack accuracy by #</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>A0CO</t>
-  </si>
-  <si>
-    <t>B05K</t>
-  </si>
-  <si>
-    <t>Dizzy</t>
-  </si>
-  <si>
-    <t>Attack accuracy is decreased.</t>
-  </si>
-  <si>
-    <t>A0CN</t>
-  </si>
-  <si>
-    <t>B05J</t>
-  </si>
-  <si>
-    <t>Fragile</t>
-  </si>
-  <si>
-    <t>Armor is decreased.</t>
-  </si>
-  <si>
-    <t>A0CM</t>
-  </si>
-  <si>
-    <t>B05I</t>
-  </si>
-  <si>
-    <t>Fatigue</t>
-  </si>
-  <si>
-    <t>A0CL</t>
-  </si>
-  <si>
-    <t>B05H</t>
-  </si>
-  <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>A0CP</t>
-  </si>
-  <si>
-    <t>B05M</t>
-  </si>
-  <si>
-    <t>Damage and healing dealt is decreased.</t>
-  </si>
-  <si>
-    <t>Weakened</t>
-  </si>
-  <si>
-    <t>A06O</t>
-  </si>
-  <si>
-    <t>B032</t>
-  </si>
-  <si>
-    <t>Voodoo Poison</t>
-  </si>
-  <si>
-    <t>A06M</t>
-  </si>
-  <si>
-    <t>B031</t>
-  </si>
-  <si>
-    <t>The Damned</t>
-  </si>
-  <si>
-    <t>A065</t>
-  </si>
-  <si>
-    <t>B02S</t>
-  </si>
-  <si>
-    <t>Takes increased magical damage.</t>
-  </si>
-  <si>
-    <t>A07C</t>
-  </si>
-  <si>
-    <t>B03E</t>
-  </si>
-  <si>
-    <t>Warsong</t>
-  </si>
-  <si>
-    <t>Damage and healing dealt is increased, takes increased healing.</t>
-  </si>
-  <si>
-    <t>A068</t>
-  </si>
-  <si>
-    <t>B02V</t>
-  </si>
-  <si>
-    <t>Call to Arms</t>
-  </si>
-  <si>
-    <t>Max HP is increased.</t>
-  </si>
-  <si>
-    <t>A06F</t>
-  </si>
-  <si>
-    <t>B02Z</t>
-  </si>
-  <si>
-    <t>Silver Crescent</t>
-  </si>
-  <si>
-    <t>Intelligence is increased.</t>
-  </si>
-  <si>
-    <t>A07E</t>
-  </si>
-  <si>
-    <t>B03G</t>
-  </si>
-  <si>
-    <t>Hex Power</t>
-  </si>
-  <si>
-    <t>Spell power is increased.</t>
-  </si>
-  <si>
-    <t>Dodge chance is increased.</t>
-  </si>
-  <si>
-    <t>Movement speed is increased.</t>
-  </si>
-  <si>
-    <t>A06K</t>
-  </si>
-  <si>
-    <t>B030</t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>A07A</t>
-  </si>
-  <si>
-    <t>B03C</t>
-  </si>
-  <si>
-    <t>Booster</t>
-  </si>
-  <si>
-    <t>A06P</t>
-  </si>
-  <si>
-    <t>B033</t>
-  </si>
-  <si>
-    <t>Ancient Derangement</t>
-  </si>
-  <si>
-    <t>Attack speed is increased, takes increased damage.</t>
-  </si>
-  <si>
-    <t>On Attack: 10% chance to stun target for # seconds</t>
-  </si>
-  <si>
-    <t>Arthas Corruption set</t>
-  </si>
-  <si>
-    <t>SET_ARTHAS</t>
-  </si>
-  <si>
-    <t>On Attack: 15% chance to cast poison nova, dealing # magical damage over time to all enemies within 600 yards</t>
-  </si>
-  <si>
-    <t>On Attack: 10% chance to consume 5% of max MP, deals # magical damage to all enemies in a row</t>
-  </si>
-  <si>
-    <t>-# magical damage taken</t>
-  </si>
-  <si>
-    <t>Deals # extra magical damage per hit</t>
-  </si>
-  <si>
-    <t>Deals # extra magical damage per hit, scaled up by target HP lost</t>
-  </si>
-  <si>
-    <t>Converts your normal attacks into magical damage#</t>
-  </si>
-  <si>
-    <t>Every Third Attack: Consumes 5% of max MP, deals # magical damage to all enemies nearby</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 10% chance to poison target, dealing # magical damage over time</t>
-  </si>
-  <si>
-    <t>Magical Damage Critical: Charges with arcane power. All arcane power will be released automatically after 3 stacks, dealing # magical damage to target</t>
-  </si>
-  <si>
-    <t>Grant Aura of Conviction: All enemies within 600 yards take # more magical damage</t>
-  </si>
-  <si>
-    <t>Use: Deals # magical damage to all enemies within range over time</t>
-  </si>
-  <si>
-    <t>On Attack: # chance to increase 100% attack critical chance</t>
-  </si>
-  <si>
-    <t>On Attack: 15% chance to cast Death Coil</t>
-  </si>
-  <si>
-    <t>On Attack: 20% chance to deal # bleed damage</t>
-  </si>
-  <si>
-    <t>On Attack: 25% chance to deal # physical damage</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 15% chance to increase intelligence by #, lasts for 15 seconds</t>
-  </si>
-  <si>
-    <t>Eagle God Gauntlets</t>
-  </si>
-  <si>
-    <t>Moonstone</t>
-  </si>
-  <si>
-    <t>Shadow Orb</t>
-  </si>
-  <si>
-    <t>生命回复</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Healthy</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Everlasting</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>吸蓝</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>of Vampire</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>of Succubus</t>
-  </si>
-  <si>
-    <t>0.01-0.02</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>ITID</t>
-  </si>
-  <si>
-    <t>Ubertip</t>
-  </si>
-  <si>
-    <t>Scroll of Frenzy</t>
-  </si>
-  <si>
-    <t>Scroll of Protection</t>
-  </si>
-  <si>
-    <t>Scroll of Mana</t>
-  </si>
-  <si>
-    <t>Scroll of Insulation</t>
-  </si>
-  <si>
-    <t>Scroll of Dispel</t>
-  </si>
-  <si>
-    <t>Potion of Invulnerability</t>
-  </si>
-  <si>
-    <t>Scroll of Energy</t>
-  </si>
-  <si>
-    <t>Use: All allies nearby takes 50% less damage. Lasts for 5 seconds.</t>
-  </si>
-  <si>
-    <t>Use: Increase attack speed and spell haste by 30% for all allies nearby. Lasts for 15 seconds.</t>
-  </si>
-  <si>
-    <t>Use: Replenish 30% mana for all allies nearby.</t>
-  </si>
-  <si>
-    <t>Use: Opens a barrier that will reflect all spell. Lasts for 10 seconds.</t>
-  </si>
-  <si>
-    <t>Use: Dispel one buff or debuff from each enemy or ally within range every 2 second. Dispels 3 times.</t>
-  </si>
-  <si>
-    <t>Use: Decrease all damage taken by 100%. Lasts for 8 seconds.</t>
-  </si>
-  <si>
-    <t>Use: Create an energy field at target area, all buffs and debuffs will no expire before the field fades. Lasts for 15 seconds.</t>
-  </si>
-  <si>
-    <t>FlavourText</t>
-  </si>
-  <si>
-    <t>A06U</t>
-  </si>
-  <si>
-    <t>B036</t>
-  </si>
-  <si>
-    <t>Attack speed and spell haste are increased.</t>
-  </si>
-  <si>
-    <t>A06W</t>
-  </si>
-  <si>
-    <t>B037</t>
-  </si>
-  <si>
-    <t>Damage taken is decreased.</t>
-  </si>
-  <si>
-    <t>A077</t>
-  </si>
-  <si>
-    <t>B03B</t>
-  </si>
-  <si>
-    <t>Spell Reflection</t>
-  </si>
-  <si>
-    <t>Reflects all targeting spell.</t>
-  </si>
-  <si>
-    <t>A085</t>
-  </si>
-  <si>
-    <t>B03Y</t>
-  </si>
-  <si>
-    <t>Shining Jewel of Tanaris</t>
-  </si>
-  <si>
-    <t>Rise of Zandalari set</t>
-  </si>
-  <si>
-    <t>SET_ZANDALARI</t>
-  </si>
-  <si>
-    <t>Drakkari Decapitator</t>
-  </si>
-  <si>
-    <t>Gurubashi Voodoo Vials</t>
-  </si>
-  <si>
-    <t>Rise of Zandalari</t>
-  </si>
-  <si>
-    <t>5 Items</t>
-  </si>
-  <si>
-    <t>Zul's Staff</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 10% chance to cast Arcane Missile, dealing # magical damage</t>
-  </si>
-  <si>
-    <t>MD_ARCANE</t>
-  </si>
-  <si>
-    <t>Maul of Warlord</t>
-  </si>
-  <si>
-    <t>Cloak of Stealth</t>
-  </si>
-  <si>
-    <t>Scepter of Archon</t>
-  </si>
-  <si>
-    <t>MC Sword</t>
-  </si>
-  <si>
-    <t>Thunderfury, Blessed Blade of the Windseeker</t>
-  </si>
-  <si>
-    <t>Breath of the Dying</t>
-  </si>
-  <si>
-    <t>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing # magical damage</t>
-  </si>
-  <si>
-    <t>Frostmourne</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4068,9 +4069,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4118,7 +4119,7 @@
         <v>336</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q1" s="64" t="s">
         <v>415</v>
@@ -4130,10 +4131,10 @@
         <v>380</v>
       </c>
       <c r="T1" s="63" t="s">
+        <v>994</v>
+      </c>
+      <c r="U1" s="63" t="s">
         <v>995</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -4771,58 +4772,58 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>1000</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -4838,8 +4839,8 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O103" sqref="A74:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5421,7 +5422,7 @@
         <v>548</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>697</v>
@@ -5697,7 +5698,7 @@
         <v>785</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>736</v>
@@ -5720,7 +5721,7 @@
         <v>786</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>741</v>
@@ -5766,7 +5767,7 @@
         <v>775</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>710</v>
@@ -6025,22 +6026,22 @@
         <v>713</v>
       </c>
       <c r="H50" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>870</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>871</v>
-      </c>
       <c r="J50" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="K50" s="14" t="s">
-        <v>875</v>
-      </c>
       <c r="L50" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="M50" s="14" t="s">
         <v>877</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6135,22 +6136,22 @@
         <v>719</v>
       </c>
       <c r="H54" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>873</v>
-      </c>
       <c r="J54" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L54" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="M54" s="14" t="s">
         <v>879</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -6291,22 +6292,22 @@
         <v>729</v>
       </c>
       <c r="H60" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="I60" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="J60" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="L60" s="14" t="s">
         <v>882</v>
       </c>
-      <c r="J60" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="L60" s="14" t="s">
+      <c r="M60" s="14" t="s">
         <v>883</v>
-      </c>
-      <c r="M60" s="14" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6358,19 +6359,19 @@
         <v>869</v>
       </c>
       <c r="I62" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="L62" s="14" t="s">
         <v>885</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>886</v>
-      </c>
       <c r="M62" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -6390,7 +6391,7 @@
         <v>593</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>732</v>
@@ -6413,28 +6414,28 @@
         <v>617</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>733</v>
       </c>
       <c r="H64" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="J64" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L64" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>889</v>
-      </c>
       <c r="M64" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6454,28 +6455,28 @@
         <v>624</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>734</v>
       </c>
       <c r="H65" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L65" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="I65" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L65" s="14" t="s">
+      <c r="M65" s="14" t="s">
         <v>894</v>
-      </c>
-      <c r="M65" s="14" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6495,28 +6496,28 @@
         <v>629</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>735</v>
       </c>
       <c r="H66" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="M66" s="14" t="s">
         <v>897</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="L66" s="14" t="s">
-        <v>890</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6536,7 +6537,7 @@
         <v>562</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>737</v>
@@ -6559,7 +6560,7 @@
         <v>630</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>738</v>
@@ -6582,28 +6583,28 @@
         <v>631</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>739</v>
       </c>
       <c r="H69" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="I69" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="J69" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="M69" s="14" t="s">
         <v>900</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -6652,22 +6653,22 @@
         <v>742</v>
       </c>
       <c r="H71" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="I71" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="J71" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L71" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L71" s="14" t="s">
+      <c r="M71" s="14" t="s">
         <v>904</v>
-      </c>
-      <c r="M71" s="14" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -6687,28 +6688,28 @@
         <v>583</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>743</v>
       </c>
       <c r="H72" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="J72" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L72" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="J72" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L72" s="14" t="s">
+      <c r="M72" s="14" t="s">
         <v>913</v>
-      </c>
-      <c r="M72" s="14" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -6734,22 +6735,22 @@
         <v>744</v>
       </c>
       <c r="H73" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="I73" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="J73" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L73" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="J73" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L73" s="14" t="s">
+      <c r="M73" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="M73" s="14" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -6775,22 +6776,22 @@
         <v>746</v>
       </c>
       <c r="H74" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="I74" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="J74" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L74" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="J74" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K74" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>921</v>
-      </c>
       <c r="M74" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -6816,22 +6817,22 @@
         <v>745</v>
       </c>
       <c r="H75" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="I75" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="J75" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L75" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="J75" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L75" s="14" t="s">
-        <v>924</v>
-      </c>
       <c r="M75" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -6857,22 +6858,22 @@
         <v>747</v>
       </c>
       <c r="H76" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="I76" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="J76" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="M76" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L76" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -6892,7 +6893,7 @@
         <v>619</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>748</v>
@@ -6938,28 +6939,28 @@
         <v>592</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>750</v>
       </c>
       <c r="H79" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="I79" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="I79" s="14" t="s">
+      <c r="J79" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L79" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="J79" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L79" s="14" t="s">
-        <v>931</v>
-      </c>
       <c r="M79" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -6979,7 +6980,7 @@
         <v>589</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>751</v>
@@ -7002,28 +7003,28 @@
         <v>564</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>765</v>
       </c>
       <c r="H81" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="J81" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L81" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="J81" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L81" s="14" t="s">
+      <c r="M81" s="14" t="s">
         <v>948</v>
-      </c>
-      <c r="M81" s="14" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -7040,10 +7041,10 @@
         <v>0.7</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G82" s="14" t="s">
         <v>1041</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -7063,7 +7064,7 @@
         <v>569</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>752</v>
@@ -7115,22 +7116,22 @@
         <v>754</v>
       </c>
       <c r="H85" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="J85" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L85" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L85" s="14" t="s">
-        <v>934</v>
-      </c>
       <c r="M85" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -7150,28 +7151,28 @@
         <v>590</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>756</v>
       </c>
       <c r="H86" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>936</v>
-      </c>
       <c r="J86" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L86" s="14" t="s">
         <v>456</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -7220,22 +7221,22 @@
         <v>758</v>
       </c>
       <c r="H88" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="I88" s="14" t="s">
+      <c r="J88" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="L88" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="J88" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K88" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="L88" s="14" t="s">
+      <c r="M88" s="14" t="s">
         <v>940</v>
-      </c>
-      <c r="M88" s="14" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -7284,22 +7285,22 @@
         <v>761</v>
       </c>
       <c r="H90" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="I90" s="14" t="s">
+      <c r="J90" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L90" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K90" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L90" s="14" t="s">
+      <c r="M90" s="14" t="s">
         <v>944</v>
-      </c>
-      <c r="M90" s="14" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -7365,7 +7366,7 @@
         <v>611</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>764</v>
@@ -7394,22 +7395,22 @@
         <v>766</v>
       </c>
       <c r="H94" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="I94" s="14" t="s">
+      <c r="J94" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L94" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="J94" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L94" s="14" t="s">
+      <c r="M94" s="14" t="s">
         <v>952</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7435,22 +7436,22 @@
         <v>767</v>
       </c>
       <c r="H95" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="I95" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="I95" s="14" t="s">
+      <c r="J95" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L95" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="J95" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K95" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L95" s="14" t="s">
-        <v>958</v>
-      </c>
       <c r="M95" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -7476,22 +7477,22 @@
         <v>768</v>
       </c>
       <c r="H96" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="I96" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="I96" s="14" t="s">
+      <c r="J96" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L96" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="J96" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K96" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L96" s="14" t="s">
-        <v>961</v>
-      </c>
       <c r="M96" s="14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -7517,22 +7518,22 @@
         <v>769</v>
       </c>
       <c r="H97" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="I97" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="I97" s="14" t="s">
+      <c r="J97" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="L97" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="J97" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K97" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="L97" s="14" t="s">
+      <c r="M97" s="14" t="s">
         <v>964</v>
-      </c>
-      <c r="M97" s="14" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -7572,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="G99" s="14" t="s">
         <v>967</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -7592,10 +7593,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G100" s="14" t="s">
         <v>1034</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -8917,7 +8918,7 @@
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="40" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8977,7 +8978,7 @@
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="40" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9037,7 +9038,7 @@
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="40" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10396,7 +10397,7 @@
       <c r="E79" s="38"/>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="15" customFormat="1">
@@ -10526,7 +10527,7 @@
       <c r="E85" s="38"/>
       <c r="F85" s="50"/>
       <c r="G85" s="40" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="15" customFormat="1">
@@ -11312,7 +11313,7 @@
         <v>-2</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -11389,7 +11390,7 @@
         <v>-2</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -11466,7 +11467,7 @@
         <v>-2</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13201,9 +13202,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -13827,7 +13828,7 @@
         <v>82</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -14906,7 +14907,7 @@
         <v>88</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="14" customFormat="1">
@@ -15229,7 +15230,7 @@
         <v>-3</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -15372,7 +15373,7 @@
         <v>-3</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -15434,7 +15435,7 @@
         <v>-3</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -16065,7 +16066,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -16229,7 +16230,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -16386,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25.5">
@@ -16474,7 +16475,7 @@
         <v>-0.05-0.15 magical damage taken</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -16511,21 +16512,21 @@
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1">
       <c r="A1" s="84" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="84" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1" s="87" t="s">
         <v>1002</v>
       </c>
-      <c r="D1" s="87" t="s">
-        <v>1003</v>
-      </c>
       <c r="E1" s="87" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="86"/>
       <c r="G1" s="86" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1" s="86"/>
       <c r="I1" s="66" t="s">
@@ -16595,13 +16596,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F4" s="71" t="s">
         <v>102</v>
@@ -16609,23 +16610,23 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
       <c r="I4" s="82" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>1021</v>
       </c>
-      <c r="J4" s="83" t="s">
-        <v>1022</v>
-      </c>
       <c r="K4" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="L4" s="83" t="s">
         <v>874</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>875</v>
       </c>
       <c r="M4" s="83" t="str">
         <f>C4</f>
         <v>Scroll of Frenzy</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="83" customFormat="1">
@@ -16636,13 +16637,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D5" s="80" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>105</v>
@@ -16650,23 +16651,23 @@
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="82" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J5" s="83" t="s">
         <v>1024</v>
       </c>
-      <c r="J5" s="83" t="s">
-        <v>1025</v>
-      </c>
       <c r="K5" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="L5" s="83" t="s">
         <v>874</v>
-      </c>
-      <c r="L5" s="83" t="s">
-        <v>875</v>
       </c>
       <c r="M5" s="83" t="str">
         <f>C5</f>
         <v>Scroll of Protection</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="83" customFormat="1">
@@ -16677,13 +16678,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F6" s="71" t="s">
         <v>108</v>
@@ -16799,13 +16800,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>128</v>
@@ -16815,22 +16816,22 @@
         <v>129</v>
       </c>
       <c r="I12" s="82" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J12" s="83" t="s">
         <v>1027</v>
       </c>
-      <c r="J12" s="83" t="s">
+      <c r="K12" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="M12" s="83" t="s">
         <v>1028</v>
       </c>
-      <c r="K12" s="83" t="s">
-        <v>874</v>
-      </c>
-      <c r="L12" s="83" t="s">
-        <v>874</v>
-      </c>
-      <c r="M12" s="83" t="s">
+      <c r="N12" s="83" t="s">
         <v>1029</v>
-      </c>
-      <c r="N12" s="83" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="83" customFormat="1">
@@ -16841,13 +16842,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="80" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="71" t="s">
         <v>132</v>
@@ -17272,13 +17273,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D36" s="80" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>253</v>
@@ -17286,23 +17287,23 @@
       <c r="G36" s="71"/>
       <c r="H36" s="71"/>
       <c r="I36" s="82" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J36" s="83" t="s">
         <v>1031</v>
       </c>
-      <c r="J36" s="83" t="s">
-        <v>1032</v>
-      </c>
       <c r="K36" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="L36" s="83" t="s">
         <v>874</v>
-      </c>
-      <c r="L36" s="83" t="s">
-        <v>875</v>
       </c>
       <c r="M36" s="83" t="str">
         <f>C36</f>
         <v>Potion of Invulnerability</v>
       </c>
       <c r="N36" s="83" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -17717,13 +17718,13 @@
         <v>3</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D59" s="80" t="s">
         <v>234</v>
       </c>
       <c r="E59" s="80" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F59" s="71" t="s">
         <v>235</v>
@@ -17864,7 +17865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>

--- a/assets/data/Items.xlsx
+++ b/assets/data/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768746B5-15C5-4864-839E-EB8670C49F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24D610-DCBE-438F-95B6-65A4AB709D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4071,7 +4071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4839,8 +4839,8 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O103" sqref="A74:O103"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/assets/data/Items.xlsx
+++ b/assets/data/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24D610-DCBE-438F-95B6-65A4AB709D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E6081-85F5-482B-B1C0-C429193BA245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="15" r:id="rId1"/>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1068">
   <si>
     <t>阿尔萨斯的堕落</t>
   </si>
@@ -3196,6 +3218,57 @@
   <si>
     <t>A0CS</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>IATTR_STR</t>
+  </si>
+  <si>
+    <t>IATTR_AGI</t>
+  </si>
+  <si>
+    <t>IATTR_INT</t>
+  </si>
+  <si>
+    <t>IATTR_HP</t>
+  </si>
+  <si>
+    <t>IATTR_AP</t>
+  </si>
+  <si>
+    <t>IATTR_CRIT</t>
+  </si>
+  <si>
+    <t>IATTR_IAS</t>
+  </si>
+  <si>
+    <t>IATTR_SP</t>
+  </si>
+  <si>
+    <t>IATTR_SCRIT</t>
+  </si>
+  <si>
+    <t>IATTR_SHASTE</t>
+  </si>
+  <si>
+    <t>IATTR_MREG</t>
+  </si>
+  <si>
+    <t>IATTR_HREG</t>
+  </si>
+  <si>
+    <t>IATTR_DEF</t>
+  </si>
+  <si>
+    <t>IATTR_DODGE</t>
+  </si>
+  <si>
+    <t>IATTR_LP</t>
+  </si>
+  <si>
+    <t>IATTR_ATK_LL</t>
+  </si>
+  <si>
+    <t>IATTR_ATK_ML</t>
   </si>
 </sst>
 </file>
@@ -3482,7 +3555,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3665,6 +3738,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4067,11 +4144,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8AED65-3B54-4C64-A71C-C47C063CF2F2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4080,11 +4157,15 @@
     <col min="2" max="2" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="15" customWidth="1"/>
-    <col min="5" max="19" width="7.7109375" style="15" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="9" width="7.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="15" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" style="15" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="15"/>
+    <col min="22" max="22" width="9.140625" style="91"/>
+    <col min="23" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="63" customFormat="1">
+    <row r="1" spans="1:22" s="63" customFormat="1">
       <c r="E1" s="64" t="s">
         <v>326</v>
       </c>
@@ -4136,695 +4217,3812 @@
       <c r="U1" s="63" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="14">
+      <c r="V1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" s="63" customFormat="1" ht="13.5">
+      <c r="E2" s="90" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R2" s="90" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S2" s="90" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T2" s="90" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U2" s="90" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V2" s="92"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="14">
         <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="14">
-        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="M3" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>422</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F7" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G8" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="65" customFormat="1">
-      <c r="A10" s="48">
+    <row r="11" spans="1:22" s="65" customFormat="1">
+      <c r="A11" s="48">
         <v>9</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>840</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="65" customFormat="1">
-      <c r="A11" s="14">
-        <v>10</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>840</v>
       </c>
-      <c r="J11" s="65" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="65" customFormat="1">
+      <c r="I11" s="65" t="s">
+        <v>846</v>
+      </c>
+      <c r="V11" s="93"/>
+    </row>
+    <row r="12" spans="1:22" s="65" customFormat="1">
       <c r="A12" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="65" t="s">
         <v>840</v>
       </c>
       <c r="J12" s="65" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="65" customFormat="1">
+      <c r="V12" s="93"/>
+    </row>
+    <row r="13" spans="1:22" s="65" customFormat="1">
       <c r="A13" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>840</v>
       </c>
-      <c r="I13" s="65" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="65" customFormat="1">
+      <c r="J13" s="65" t="s">
+        <v>847</v>
+      </c>
+      <c r="V13" s="93"/>
+    </row>
+    <row r="14" spans="1:22" s="65" customFormat="1">
       <c r="A14" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>840</v>
       </c>
-      <c r="N14" s="65" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="65" customFormat="1">
+      <c r="I14" s="65" t="s">
+        <v>846</v>
+      </c>
+      <c r="V14" s="93"/>
+    </row>
+    <row r="15" spans="1:22" s="65" customFormat="1">
       <c r="A15" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G15" s="65" t="s">
         <v>840</v>
       </c>
-      <c r="O15" s="65" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="65" customFormat="1">
+      <c r="N15" s="65" t="s">
+        <v>847</v>
+      </c>
+      <c r="V15" s="93"/>
+    </row>
+    <row r="16" spans="1:22" s="65" customFormat="1">
       <c r="A16" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>840</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="V16" s="93"/>
+    </row>
+    <row r="17" spans="1:22" s="65" customFormat="1">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D17" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H17" s="65" t="s">
         <v>841</v>
       </c>
-      <c r="R16" s="65" t="s">
+      <c r="R17" s="65" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="14">
+      <c r="V17" s="93"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="14">
         <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="14">
-        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>429</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q19" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="R19" s="15" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:22">
       <c r="A20" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>433</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="14">
+    <row r="23" spans="1:22">
+      <c r="A23" s="14">
         <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="14">
-        <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>385</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>388</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>392</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>396</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>443</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>403</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="15" t="s">
-        <v>988</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="14">
+        <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>989</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>419</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="15" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P40" s="15" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:22">
+      <c r="A41" s="15" t="s">
         <v>996</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>997</v>
-      </c>
-      <c r="T40" s="15" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="15" t="s">
-        <v>998</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="U41" s="15" t="s">
+      <c r="U42" s="15" t="s">
         <v>1000</v>
       </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="E43" s="91" t="str" cm="1">
+        <f t="array" ref="E43">IF(E3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E3,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="91" t="str" cm="1">
+        <f t="array" ref="F43">IF(F3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F3,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="91" t="str" cm="1">
+        <f t="array" ref="G43">IF(G3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G3,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="91" t="str" cm="1">
+        <f t="array" ref="H43">IF(H3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H3,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="91" t="str" cm="1">
+        <f t="array" ref="I43">IF(I3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I3,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="91" t="str" cm="1">
+        <f t="array" ref="J43">IF(J3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J3,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_CRIT,lo:3,hi:7</v>
+      </c>
+      <c r="K43" s="91" t="str" cm="1">
+        <f t="array" ref="K43">IF(K3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K3,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="91" t="str" cm="1">
+        <f t="array" ref="L43">IF(L3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L3,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M43" s="91" t="str" cm="1">
+        <f t="array" ref="M43">IF(M3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M3,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="91" t="str" cm="1">
+        <f t="array" ref="N43">IF(N3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N3,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O43" s="91" t="str" cm="1">
+        <f t="array" ref="O43">IF(O3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O3,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P43" s="91" t="str" cm="1">
+        <f t="array" ref="P43">IF(P3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P3,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="91" t="str" cm="1">
+        <f t="array" ref="Q43">IF(Q3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q3,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R43" s="91" t="str" cm="1">
+        <f t="array" ref="R43">IF(R3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R3,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S43" s="91" t="str" cm="1">
+        <f t="array" ref="S43">IF(S3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S3,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T43" s="91" t="str" cm="1">
+        <f t="array" ref="T43">IF(T3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T3,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U43" s="91" t="str" cm="1">
+        <f t="array" ref="U43">IF(U3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U3,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V43" s="91" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,E43:U43)</f>
+        <v>id:IATTR_CRIT,lo:3,hi:7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="E44" s="91" t="str" cm="1">
+        <f t="array" ref="E44">IF(E4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E4,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="91" t="str" cm="1">
+        <f t="array" ref="F44">IF(F4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F4,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="91" t="str" cm="1">
+        <f t="array" ref="G44">IF(G4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G4,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="91" t="str" cm="1">
+        <f t="array" ref="H44">IF(H4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H4,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="91" t="str" cm="1">
+        <f t="array" ref="I44">IF(I4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I4,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="91" t="str" cm="1">
+        <f t="array" ref="J44">IF(J4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J4,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="91" t="str" cm="1">
+        <f t="array" ref="K44">IF(K4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K4,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="91" t="str" cm="1">
+        <f t="array" ref="L44">IF(L4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L4,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="91" t="str" cm="1">
+        <f t="array" ref="M44">IF(M4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M4,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SCRIT,lo:3,hi:7</v>
+      </c>
+      <c r="N44" s="91" t="str" cm="1">
+        <f t="array" ref="N44">IF(N4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N4,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="91" t="str" cm="1">
+        <f t="array" ref="O44">IF(O4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O4,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="91" t="str" cm="1">
+        <f t="array" ref="P44">IF(P4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P4,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="91" t="str" cm="1">
+        <f t="array" ref="Q44">IF(Q4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q4,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R44" s="91" t="str" cm="1">
+        <f t="array" ref="R44">IF(R4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R4,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S44" s="91" t="str" cm="1">
+        <f t="array" ref="S44">IF(S4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S4,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T44" s="91" t="str" cm="1">
+        <f t="array" ref="T44">IF(T4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T4,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U44" s="91" t="str" cm="1">
+        <f t="array" ref="U44">IF(U4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U4,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V44" s="91" t="str">
+        <f t="shared" ref="V44:V82" si="0">_xlfn.TEXTJOIN(";",TRUE,E44:U44)</f>
+        <v>id:IATTR_SCRIT,lo:3,hi:7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="E45" s="91" t="str" cm="1">
+        <f t="array" ref="E45">IF(E5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E5,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="91" t="str" cm="1">
+        <f t="array" ref="F45">IF(F5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F5,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="91" t="str" cm="1">
+        <f t="array" ref="G45">IF(G5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G5,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="91" t="str" cm="1">
+        <f t="array" ref="H45">IF(H5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H5,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="91" t="str" cm="1">
+        <f t="array" ref="I45">IF(I5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I5,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="91" t="str" cm="1">
+        <f t="array" ref="J45">IF(J5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J5,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="91" t="str" cm="1">
+        <f t="array" ref="K45">IF(K5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K5,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_IAS,lo:3,hi:7</v>
+      </c>
+      <c r="L45" s="91" t="str" cm="1">
+        <f t="array" ref="L45">IF(L5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L5,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="91" t="str" cm="1">
+        <f t="array" ref="M45">IF(M5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M5,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="91" t="str" cm="1">
+        <f t="array" ref="N45">IF(N5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N5,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="91" t="str" cm="1">
+        <f t="array" ref="O45">IF(O5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O5,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="91" t="str" cm="1">
+        <f t="array" ref="P45">IF(P5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P5,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="91" t="str" cm="1">
+        <f t="array" ref="Q45">IF(Q5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q5,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R45" s="91" t="str" cm="1">
+        <f t="array" ref="R45">IF(R5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R5,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S45" s="91" t="str" cm="1">
+        <f t="array" ref="S45">IF(S5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S5,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T45" s="91" t="str" cm="1">
+        <f t="array" ref="T45">IF(T5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T5,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U45" s="91" t="str" cm="1">
+        <f t="array" ref="U45">IF(U5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U5,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V45" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_IAS,lo:3,hi:7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="E46" s="91" t="str" cm="1">
+        <f t="array" ref="E46">IF(E6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E6,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="91" t="str" cm="1">
+        <f t="array" ref="F46">IF(F6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F6,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="91" t="str" cm="1">
+        <f t="array" ref="G46">IF(G6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G6,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="91" t="str" cm="1">
+        <f t="array" ref="H46">IF(H6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H6,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="91" t="str" cm="1">
+        <f t="array" ref="I46">IF(I6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I6,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="91" t="str" cm="1">
+        <f t="array" ref="J46">IF(J6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J6,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="91" t="str" cm="1">
+        <f t="array" ref="K46">IF(K6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K6,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="91" t="str" cm="1">
+        <f t="array" ref="L46">IF(L6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L6,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="91" t="str" cm="1">
+        <f t="array" ref="M46">IF(M6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M6,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="91" t="str" cm="1">
+        <f t="array" ref="N46">IF(N6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N6,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SHASTE,lo:3,hi:7</v>
+      </c>
+      <c r="O46" s="91" t="str" cm="1">
+        <f t="array" ref="O46">IF(O6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O6,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="91" t="str" cm="1">
+        <f t="array" ref="P46">IF(P6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P6,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q46" s="91" t="str" cm="1">
+        <f t="array" ref="Q46">IF(Q6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q6,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R46" s="91" t="str" cm="1">
+        <f t="array" ref="R46">IF(R6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R6,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S46" s="91" t="str" cm="1">
+        <f t="array" ref="S46">IF(S6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S6,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T46" s="91" t="str" cm="1">
+        <f t="array" ref="T46">IF(T6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T6,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U46" s="91" t="str" cm="1">
+        <f t="array" ref="U46">IF(U6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U6,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V46" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_SHASTE,lo:3,hi:7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="E47" s="91" t="str" cm="1">
+        <f t="array" ref="E47">IF(E7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E7,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_STR,lo:8,hi:15</v>
+      </c>
+      <c r="F47" s="91" t="str" cm="1">
+        <f t="array" ref="F47">IF(F7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F7,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="91" t="str" cm="1">
+        <f t="array" ref="G47">IF(G7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G7,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="91" t="str" cm="1">
+        <f t="array" ref="H47">IF(H7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H7,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="91" t="str" cm="1">
+        <f t="array" ref="I47">IF(I7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I7,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="91" t="str" cm="1">
+        <f t="array" ref="J47">IF(J7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J7,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="91" t="str" cm="1">
+        <f t="array" ref="K47">IF(K7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K7,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="91" t="str" cm="1">
+        <f t="array" ref="L47">IF(L7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L7,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="91" t="str" cm="1">
+        <f t="array" ref="M47">IF(M7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M7,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="91" t="str" cm="1">
+        <f t="array" ref="N47">IF(N7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N7,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="91" t="str" cm="1">
+        <f t="array" ref="O47">IF(O7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O7,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P47" s="91" t="str" cm="1">
+        <f t="array" ref="P47">IF(P7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P7,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="91" t="str" cm="1">
+        <f t="array" ref="Q47">IF(Q7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q7,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R47" s="91" t="str" cm="1">
+        <f t="array" ref="R47">IF(R7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R7,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S47" s="91" t="str" cm="1">
+        <f t="array" ref="S47">IF(S7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S7,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T47" s="91" t="str" cm="1">
+        <f t="array" ref="T47">IF(T7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T7,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U47" s="91" t="str" cm="1">
+        <f t="array" ref="U47">IF(U7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U7,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V47" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_STR,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="E48" s="91" t="str" cm="1">
+        <f t="array" ref="E48">IF(E8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E8,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="91" t="str" cm="1">
+        <f t="array" ref="F48">IF(F8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F8,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AGI,lo:8,hi:15</v>
+      </c>
+      <c r="G48" s="91" t="str" cm="1">
+        <f t="array" ref="G48">IF(G8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G8,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="91" t="str" cm="1">
+        <f t="array" ref="H48">IF(H8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H8,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="91" t="str" cm="1">
+        <f t="array" ref="I48">IF(I8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I8,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="91" t="str" cm="1">
+        <f t="array" ref="J48">IF(J8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J8,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="91" t="str" cm="1">
+        <f t="array" ref="K48">IF(K8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K8,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="91" t="str" cm="1">
+        <f t="array" ref="L48">IF(L8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L8,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="91" t="str" cm="1">
+        <f t="array" ref="M48">IF(M8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M8,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="91" t="str" cm="1">
+        <f t="array" ref="N48">IF(N8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N8,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="91" t="str" cm="1">
+        <f t="array" ref="O48">IF(O8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O8,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="91" t="str" cm="1">
+        <f t="array" ref="P48">IF(P8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P8,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q48" s="91" t="str" cm="1">
+        <f t="array" ref="Q48">IF(Q8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q8,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R48" s="91" t="str" cm="1">
+        <f t="array" ref="R48">IF(R8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R8,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S48" s="91" t="str" cm="1">
+        <f t="array" ref="S48">IF(S8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S8,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T48" s="91" t="str" cm="1">
+        <f t="array" ref="T48">IF(T8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T8,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U48" s="91" t="str" cm="1">
+        <f t="array" ref="U48">IF(U8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U8,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V48" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AGI,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="49" spans="5:22">
+      <c r="E49" s="91" t="str" cm="1">
+        <f t="array" ref="E49">IF(E9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E9,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="91" t="str" cm="1">
+        <f t="array" ref="F49">IF(F9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F9,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="91" t="str" cm="1">
+        <f t="array" ref="G49">IF(G9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G9,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_INT,lo:8,hi:15</v>
+      </c>
+      <c r="H49" s="91" t="str" cm="1">
+        <f t="array" ref="H49">IF(H9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H9,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="91" t="str" cm="1">
+        <f t="array" ref="I49">IF(I9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I9,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="91" t="str" cm="1">
+        <f t="array" ref="J49">IF(J9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J9,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="91" t="str" cm="1">
+        <f t="array" ref="K49">IF(K9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K9,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="91" t="str" cm="1">
+        <f t="array" ref="L49">IF(L9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L9,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="91" t="str" cm="1">
+        <f t="array" ref="M49">IF(M9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M9,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="91" t="str" cm="1">
+        <f t="array" ref="N49">IF(N9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N9,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="91" t="str" cm="1">
+        <f t="array" ref="O49">IF(O9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O9,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="91" t="str" cm="1">
+        <f t="array" ref="P49">IF(P9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P9,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q49" s="91" t="str" cm="1">
+        <f t="array" ref="Q49">IF(Q9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q9,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R49" s="91" t="str" cm="1">
+        <f t="array" ref="R49">IF(R9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R9,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S49" s="91" t="str" cm="1">
+        <f t="array" ref="S49">IF(S9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S9,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T49" s="91" t="str" cm="1">
+        <f t="array" ref="T49">IF(T9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T9,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U49" s="91" t="str" cm="1">
+        <f t="array" ref="U49">IF(U9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U9,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V49" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_INT,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22">
+      <c r="E50" s="91" t="str" cm="1">
+        <f t="array" ref="E50">IF(E10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E10,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="91" t="str" cm="1">
+        <f t="array" ref="F50">IF(F10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F10,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="91" t="str" cm="1">
+        <f t="array" ref="G50">IF(G10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G10,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="91" t="str" cm="1">
+        <f t="array" ref="H50">IF(H10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H10,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HP,lo:113,hi:225</v>
+      </c>
+      <c r="I50" s="91" t="str" cm="1">
+        <f t="array" ref="I50">IF(I10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I10,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="91" t="str" cm="1">
+        <f t="array" ref="J50">IF(J10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J10,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="91" t="str" cm="1">
+        <f t="array" ref="K50">IF(K10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K10,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="91" t="str" cm="1">
+        <f t="array" ref="L50">IF(L10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L10,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M50" s="91" t="str" cm="1">
+        <f t="array" ref="M50">IF(M10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M10,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N50" s="91" t="str" cm="1">
+        <f t="array" ref="N50">IF(N10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N10,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O50" s="91" t="str" cm="1">
+        <f t="array" ref="O50">IF(O10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O10,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P50" s="91" t="str" cm="1">
+        <f t="array" ref="P50">IF(P10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P10,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="91" t="str" cm="1">
+        <f t="array" ref="Q50">IF(Q10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q10,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R50" s="91" t="str" cm="1">
+        <f t="array" ref="R50">IF(R10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R10,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S50" s="91" t="str" cm="1">
+        <f t="array" ref="S50">IF(S10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S10,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T50" s="91" t="str" cm="1">
+        <f t="array" ref="T50">IF(T10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T10,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U50" s="91" t="str" cm="1">
+        <f t="array" ref="U50">IF(U10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U10,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V50" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HP,lo:113,hi:225</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22">
+      <c r="E51" s="91" t="str" cm="1">
+        <f t="array" ref="E51">IF(E11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E11,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_STR,lo:5,hi:9</v>
+      </c>
+      <c r="F51" s="91" t="str" cm="1">
+        <f t="array" ref="F51">IF(F11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F11,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G51" s="91" t="str" cm="1">
+        <f t="array" ref="G51">IF(G11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G11,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H51" s="91" t="str" cm="1">
+        <f t="array" ref="H51">IF(H11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H11,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="91" t="str" cm="1">
+        <f t="array" ref="I51">IF(I11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I11,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AP,lo:6,hi:11</v>
+      </c>
+      <c r="J51" s="91" t="str" cm="1">
+        <f t="array" ref="J51">IF(J11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J11,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="91" t="str" cm="1">
+        <f t="array" ref="K51">IF(K11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K11,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L51" s="91" t="str" cm="1">
+        <f t="array" ref="L51">IF(L11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L11,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M51" s="91" t="str" cm="1">
+        <f t="array" ref="M51">IF(M11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M11,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N51" s="91" t="str" cm="1">
+        <f t="array" ref="N51">IF(N11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N11,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O51" s="91" t="str" cm="1">
+        <f t="array" ref="O51">IF(O11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O11,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="91" t="str" cm="1">
+        <f t="array" ref="P51">IF(P11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P11,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="91" t="str" cm="1">
+        <f t="array" ref="Q51">IF(Q11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q11,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R51" s="91" t="str" cm="1">
+        <f t="array" ref="R51">IF(R11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R11,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S51" s="91" t="str" cm="1">
+        <f t="array" ref="S51">IF(S11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S11,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T51" s="91" t="str" cm="1">
+        <f t="array" ref="T51">IF(T11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T11,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U51" s="91" t="str" cm="1">
+        <f t="array" ref="U51">IF(U11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U11,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V51" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_STR,lo:5,hi:9;id:IATTR_AP,lo:6,hi:11</v>
+      </c>
+    </row>
+    <row r="52" spans="5:22">
+      <c r="E52" s="91" t="str" cm="1">
+        <f t="array" ref="E52">IF(E12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E12,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_STR,lo:5,hi:9</v>
+      </c>
+      <c r="F52" s="91" t="str" cm="1">
+        <f t="array" ref="F52">IF(F12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F12,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="91" t="str" cm="1">
+        <f t="array" ref="G52">IF(G12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G12,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H52" s="91" t="str" cm="1">
+        <f t="array" ref="H52">IF(H12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H12,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="91" t="str" cm="1">
+        <f t="array" ref="I52">IF(I12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I12,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="91" t="str" cm="1">
+        <f t="array" ref="J52">IF(J12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J12,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_CRIT,lo:2,hi:5</v>
+      </c>
+      <c r="K52" s="91" t="str" cm="1">
+        <f t="array" ref="K52">IF(K12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K12,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L52" s="91" t="str" cm="1">
+        <f t="array" ref="L52">IF(L12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L12,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M52" s="91" t="str" cm="1">
+        <f t="array" ref="M52">IF(M12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M12,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N52" s="91" t="str" cm="1">
+        <f t="array" ref="N52">IF(N12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N12,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="91" t="str" cm="1">
+        <f t="array" ref="O52">IF(O12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O12,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P52" s="91" t="str" cm="1">
+        <f t="array" ref="P52">IF(P12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P12,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="91" t="str" cm="1">
+        <f t="array" ref="Q52">IF(Q12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q12,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R52" s="91" t="str" cm="1">
+        <f t="array" ref="R52">IF(R12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R12,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S52" s="91" t="str" cm="1">
+        <f t="array" ref="S52">IF(S12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S12,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T52" s="91" t="str" cm="1">
+        <f t="array" ref="T52">IF(T12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T12,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U52" s="91" t="str" cm="1">
+        <f t="array" ref="U52">IF(U12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U12,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V52" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_STR,lo:5,hi:9;id:IATTR_CRIT,lo:2,hi:5</v>
+      </c>
+    </row>
+    <row r="53" spans="5:22">
+      <c r="E53" s="91" t="str" cm="1">
+        <f t="array" ref="E53">IF(E13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E13,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="91" t="str" cm="1">
+        <f t="array" ref="F53">IF(F13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F13,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AGI,lo:5,hi:9</v>
+      </c>
+      <c r="G53" s="91" t="str" cm="1">
+        <f t="array" ref="G53">IF(G13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G13,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H53" s="91" t="str" cm="1">
+        <f t="array" ref="H53">IF(H13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H13,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I53" s="91" t="str" cm="1">
+        <f t="array" ref="I53">IF(I13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I13,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="91" t="str" cm="1">
+        <f t="array" ref="J53">IF(J13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J13,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_CRIT,lo:2,hi:5</v>
+      </c>
+      <c r="K53" s="91" t="str" cm="1">
+        <f t="array" ref="K53">IF(K13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K13,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L53" s="91" t="str" cm="1">
+        <f t="array" ref="L53">IF(L13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L13,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M53" s="91" t="str" cm="1">
+        <f t="array" ref="M53">IF(M13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M13,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N53" s="91" t="str" cm="1">
+        <f t="array" ref="N53">IF(N13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N13,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O53" s="91" t="str" cm="1">
+        <f t="array" ref="O53">IF(O13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O13,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P53" s="91" t="str" cm="1">
+        <f t="array" ref="P53">IF(P13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P13,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="91" t="str" cm="1">
+        <f t="array" ref="Q53">IF(Q13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q13,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R53" s="91" t="str" cm="1">
+        <f t="array" ref="R53">IF(R13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R13,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S53" s="91" t="str" cm="1">
+        <f t="array" ref="S53">IF(S13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S13,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T53" s="91" t="str" cm="1">
+        <f t="array" ref="T53">IF(T13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T13,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U53" s="91" t="str" cm="1">
+        <f t="array" ref="U53">IF(U13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U13,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V53" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AGI,lo:5,hi:9;id:IATTR_CRIT,lo:2,hi:5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:22">
+      <c r="E54" s="91" t="str" cm="1">
+        <f t="array" ref="E54">IF(E14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E14,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="91" t="str" cm="1">
+        <f t="array" ref="F54">IF(F14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F14,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AGI,lo:5,hi:9</v>
+      </c>
+      <c r="G54" s="91" t="str" cm="1">
+        <f t="array" ref="G54">IF(G14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G14,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H54" s="91" t="str" cm="1">
+        <f t="array" ref="H54">IF(H14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H14,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="91" t="str" cm="1">
+        <f t="array" ref="I54">IF(I14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I14,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AP,lo:6,hi:11</v>
+      </c>
+      <c r="J54" s="91" t="str" cm="1">
+        <f t="array" ref="J54">IF(J14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J14,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="91" t="str" cm="1">
+        <f t="array" ref="K54">IF(K14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K14,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="91" t="str" cm="1">
+        <f t="array" ref="L54">IF(L14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L14,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M54" s="91" t="str" cm="1">
+        <f t="array" ref="M54">IF(M14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M14,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N54" s="91" t="str" cm="1">
+        <f t="array" ref="N54">IF(N14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N14,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O54" s="91" t="str" cm="1">
+        <f t="array" ref="O54">IF(O14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O14,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P54" s="91" t="str" cm="1">
+        <f t="array" ref="P54">IF(P14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P14,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="91" t="str" cm="1">
+        <f t="array" ref="Q54">IF(Q14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q14,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R54" s="91" t="str" cm="1">
+        <f t="array" ref="R54">IF(R14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R14,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S54" s="91" t="str" cm="1">
+        <f t="array" ref="S54">IF(S14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S14,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T54" s="91" t="str" cm="1">
+        <f t="array" ref="T54">IF(T14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T14,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U54" s="91" t="str" cm="1">
+        <f t="array" ref="U54">IF(U14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U14,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V54" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AGI,lo:5,hi:9;id:IATTR_AP,lo:6,hi:11</v>
+      </c>
+    </row>
+    <row r="55" spans="5:22">
+      <c r="E55" s="91" t="str" cm="1">
+        <f t="array" ref="E55">IF(E15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E15,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F55" s="91" t="str" cm="1">
+        <f t="array" ref="F55">IF(F15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F15,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="91" t="str" cm="1">
+        <f t="array" ref="G55">IF(G15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G15,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_INT,lo:5,hi:9</v>
+      </c>
+      <c r="H55" s="91" t="str" cm="1">
+        <f t="array" ref="H55">IF(H15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H15,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="91" t="str" cm="1">
+        <f t="array" ref="I55">IF(I15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I15,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="91" t="str" cm="1">
+        <f t="array" ref="J55">IF(J15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J15,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="91" t="str" cm="1">
+        <f t="array" ref="K55">IF(K15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K15,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L55" s="91" t="str" cm="1">
+        <f t="array" ref="L55">IF(L15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L15,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M55" s="91" t="str" cm="1">
+        <f t="array" ref="M55">IF(M15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M15,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N55" s="91" t="str" cm="1">
+        <f t="array" ref="N55">IF(N15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N15,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SHASTE,lo:2,hi:5</v>
+      </c>
+      <c r="O55" s="91" t="str" cm="1">
+        <f t="array" ref="O55">IF(O15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O15,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P55" s="91" t="str" cm="1">
+        <f t="array" ref="P55">IF(P15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P15,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="91" t="str" cm="1">
+        <f t="array" ref="Q55">IF(Q15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q15,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R55" s="91" t="str" cm="1">
+        <f t="array" ref="R55">IF(R15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R15,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S55" s="91" t="str" cm="1">
+        <f t="array" ref="S55">IF(S15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S15,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T55" s="91" t="str" cm="1">
+        <f t="array" ref="T55">IF(T15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T15,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U55" s="91" t="str" cm="1">
+        <f t="array" ref="U55">IF(U15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U15,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V55" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_INT,lo:5,hi:9;id:IATTR_SHASTE,lo:2,hi:5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:22">
+      <c r="E56" s="91" t="str" cm="1">
+        <f t="array" ref="E56">IF(E16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E16,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="91" t="str" cm="1">
+        <f t="array" ref="F56">IF(F16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F16,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="91" t="str" cm="1">
+        <f t="array" ref="G56">IF(G16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G16,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_INT,lo:5,hi:9</v>
+      </c>
+      <c r="H56" s="91" t="str" cm="1">
+        <f t="array" ref="H56">IF(H16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H16,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="91" t="str" cm="1">
+        <f t="array" ref="I56">IF(I16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I16,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="91" t="str" cm="1">
+        <f t="array" ref="J56">IF(J16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J16,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="91" t="str" cm="1">
+        <f t="array" ref="K56">IF(K16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K16,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="91" t="str" cm="1">
+        <f t="array" ref="L56">IF(L16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L16,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M56" s="91" t="str" cm="1">
+        <f t="array" ref="M56">IF(M16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M16,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N56" s="91" t="str" cm="1">
+        <f t="array" ref="N56">IF(N16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N16,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O56" s="91" t="str" cm="1">
+        <f t="array" ref="O56">IF(O16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O16,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_MREG,lo:1,hi:2</v>
+      </c>
+      <c r="P56" s="91" t="str" cm="1">
+        <f t="array" ref="P56">IF(P16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P16,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="91" t="str" cm="1">
+        <f t="array" ref="Q56">IF(Q16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q16,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R56" s="91" t="str" cm="1">
+        <f t="array" ref="R56">IF(R16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R16,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S56" s="91" t="str" cm="1">
+        <f t="array" ref="S56">IF(S16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S16,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T56" s="91" t="str" cm="1">
+        <f t="array" ref="T56">IF(T16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T16,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U56" s="91" t="str" cm="1">
+        <f t="array" ref="U56">IF(U16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U16,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V56" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_INT,lo:5,hi:9;id:IATTR_MREG,lo:1,hi:2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:22">
+      <c r="E57" s="91" t="str" cm="1">
+        <f t="array" ref="E57">IF(E17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E17,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="91" t="str" cm="1">
+        <f t="array" ref="F57">IF(F17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F17,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="91" t="str" cm="1">
+        <f t="array" ref="G57">IF(G17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G17,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H57" s="91" t="str" cm="1">
+        <f t="array" ref="H57">IF(H17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H17,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HP,lo:68,hi:135</v>
+      </c>
+      <c r="I57" s="91" t="str" cm="1">
+        <f t="array" ref="I57">IF(I17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I17,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="91" t="str" cm="1">
+        <f t="array" ref="J57">IF(J17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J17,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="91" t="str" cm="1">
+        <f t="array" ref="K57">IF(K17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K17,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="91" t="str" cm="1">
+        <f t="array" ref="L57">IF(L17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L17,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M57" s="91" t="str" cm="1">
+        <f t="array" ref="M57">IF(M17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M17,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N57" s="91" t="str" cm="1">
+        <f t="array" ref="N57">IF(N17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N17,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O57" s="91" t="str" cm="1">
+        <f t="array" ref="O57">IF(O17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O17,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P57" s="91" t="str" cm="1">
+        <f t="array" ref="P57">IF(P17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P17,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="91" t="str" cm="1">
+        <f t="array" ref="Q57">IF(Q17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q17,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R57" s="91" t="str" cm="1">
+        <f t="array" ref="R57">IF(R17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R17,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_DODGE,lo:2,hi:3</v>
+      </c>
+      <c r="S57" s="91" t="str" cm="1">
+        <f t="array" ref="S57">IF(S17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S17,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T57" s="91" t="str" cm="1">
+        <f t="array" ref="T57">IF(T17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T17,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U57" s="91" t="str" cm="1">
+        <f t="array" ref="U57">IF(U17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U17,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V57" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HP,lo:68,hi:135;id:IATTR_DODGE,lo:2,hi:3</v>
+      </c>
+    </row>
+    <row r="58" spans="5:22">
+      <c r="E58" s="91" t="str" cm="1">
+        <f t="array" ref="E58">IF(E18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E18,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="91" t="str" cm="1">
+        <f t="array" ref="F58">IF(F18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F18,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G58" s="91" t="str" cm="1">
+        <f t="array" ref="G58">IF(G18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G18,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H58" s="91" t="str" cm="1">
+        <f t="array" ref="H58">IF(H18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H18,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I58" s="91" t="str" cm="1">
+        <f t="array" ref="I58">IF(I18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I18,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="91" t="str" cm="1">
+        <f t="array" ref="J58">IF(J18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J18,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="91" t="str" cm="1">
+        <f t="array" ref="K58">IF(K18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K18,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="91" t="str" cm="1">
+        <f t="array" ref="L58">IF(L18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L18,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M58" s="91" t="str" cm="1">
+        <f t="array" ref="M58">IF(M18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M18,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N58" s="91" t="str" cm="1">
+        <f t="array" ref="N58">IF(N18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N18,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O58" s="91" t="str" cm="1">
+        <f t="array" ref="O58">IF(O18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O18,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="91" t="str" cm="1">
+        <f t="array" ref="P58">IF(P18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P18,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="91" t="str" cm="1">
+        <f t="array" ref="Q58">IF(Q18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q18,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R58" s="91" t="str" cm="1">
+        <f t="array" ref="R58">IF(R18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R18,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S58" s="91" t="str" cm="1">
+        <f t="array" ref="S58">IF(S18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S18,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_LP,lo:1,hi:3</v>
+      </c>
+      <c r="T58" s="91" t="str" cm="1">
+        <f t="array" ref="T58">IF(T18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T18,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U58" s="91" t="str" cm="1">
+        <f t="array" ref="U58">IF(U18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U18,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V58" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_LP,lo:1,hi:3</v>
+      </c>
+    </row>
+    <row r="59" spans="5:22">
+      <c r="E59" s="91" t="str" cm="1">
+        <f t="array" ref="E59">IF(E19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E19,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="91" t="str" cm="1">
+        <f t="array" ref="F59">IF(F19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F19,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G59" s="91" t="str" cm="1">
+        <f t="array" ref="G59">IF(G19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G19,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H59" s="91" t="str" cm="1">
+        <f t="array" ref="H59">IF(H19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H19,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="91" t="str" cm="1">
+        <f t="array" ref="I59">IF(I19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I19,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="91" t="str" cm="1">
+        <f t="array" ref="J59">IF(J19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J19,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="91" t="str" cm="1">
+        <f t="array" ref="K59">IF(K19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K19,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L59" s="91" t="str" cm="1">
+        <f t="array" ref="L59">IF(L19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L19,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M59" s="91" t="str" cm="1">
+        <f t="array" ref="M59">IF(M19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M19,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N59" s="91" t="str" cm="1">
+        <f t="array" ref="N59">IF(N19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N19,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O59" s="91" t="str" cm="1">
+        <f t="array" ref="O59">IF(O19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O19,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="91" t="str" cm="1">
+        <f t="array" ref="P59">IF(P19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P19,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="91" t="str" cm="1">
+        <f t="array" ref="Q59">IF(Q19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q19,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R59" s="91" t="str" cm="1">
+        <f t="array" ref="R59">IF(R19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R19,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_DODGE,lo:2,hi:5</v>
+      </c>
+      <c r="S59" s="91" t="str" cm="1">
+        <f t="array" ref="S59">IF(S19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S19,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T59" s="91" t="str" cm="1">
+        <f t="array" ref="T59">IF(T19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T19,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U59" s="91" t="str" cm="1">
+        <f t="array" ref="U59">IF(U19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U19,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V59" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_DODGE,lo:2,hi:5</v>
+      </c>
+    </row>
+    <row r="60" spans="5:22">
+      <c r="E60" s="91" t="str" cm="1">
+        <f t="array" ref="E60">IF(E20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E20,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="91" t="str" cm="1">
+        <f t="array" ref="F60">IF(F20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F20,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="91" t="str" cm="1">
+        <f t="array" ref="G60">IF(G20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G20,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H60" s="91" t="str" cm="1">
+        <f t="array" ref="H60">IF(H20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H20,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I60" s="91" t="str" cm="1">
+        <f t="array" ref="I60">IF(I20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I20,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="91" t="str" cm="1">
+        <f t="array" ref="J60">IF(J20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J20,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="91" t="str" cm="1">
+        <f t="array" ref="K60">IF(K20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K20,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="91" t="str" cm="1">
+        <f t="array" ref="L60">IF(L20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L20,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M60" s="91" t="str" cm="1">
+        <f t="array" ref="M60">IF(M20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M20,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N60" s="91" t="str" cm="1">
+        <f t="array" ref="N60">IF(N20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N20,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O60" s="91" t="str" cm="1">
+        <f t="array" ref="O60">IF(O20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O20,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P60" s="91" t="str" cm="1">
+        <f t="array" ref="P60">IF(P20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P20,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="91" t="str" cm="1">
+        <f t="array" ref="Q60">IF(Q20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q20,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_DEF,lo:2,hi:5</v>
+      </c>
+      <c r="R60" s="91" t="str" cm="1">
+        <f t="array" ref="R60">IF(R20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R20,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S60" s="91" t="str" cm="1">
+        <f t="array" ref="S60">IF(S20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S20,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T60" s="91" t="str" cm="1">
+        <f t="array" ref="T60">IF(T20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T20,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U60" s="91" t="str" cm="1">
+        <f t="array" ref="U60">IF(U20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U20,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V60" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_DEF,lo:2,hi:5</v>
+      </c>
+    </row>
+    <row r="61" spans="5:22">
+      <c r="E61" s="91" t="str" cm="1">
+        <f t="array" ref="E61">IF(E21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E21,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="91" t="str" cm="1">
+        <f t="array" ref="F61">IF(F21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F21,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="91" t="str" cm="1">
+        <f t="array" ref="G61">IF(G21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G21,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H61" s="91" t="str" cm="1">
+        <f t="array" ref="H61">IF(H21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H21,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="91" t="str" cm="1">
+        <f t="array" ref="I61">IF(I21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I21,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="91" t="str" cm="1">
+        <f t="array" ref="J61">IF(J21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J21,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="91" t="str" cm="1">
+        <f t="array" ref="K61">IF(K21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K21,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L61" s="91" t="str" cm="1">
+        <f t="array" ref="L61">IF(L21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L21,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M61" s="91" t="str" cm="1">
+        <f t="array" ref="M61">IF(M21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M21,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N61" s="91" t="str" cm="1">
+        <f t="array" ref="N61">IF(N21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N21,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O61" s="91" t="str" cm="1">
+        <f t="array" ref="O61">IF(O21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O21,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_MREG,lo:2,hi:3</v>
+      </c>
+      <c r="P61" s="91" t="str" cm="1">
+        <f t="array" ref="P61">IF(P21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P21,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="91" t="str" cm="1">
+        <f t="array" ref="Q61">IF(Q21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q21,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R61" s="91" t="str" cm="1">
+        <f t="array" ref="R61">IF(R21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R21,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S61" s="91" t="str" cm="1">
+        <f t="array" ref="S61">IF(S21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S21,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T61" s="91" t="str" cm="1">
+        <f t="array" ref="T61">IF(T21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T21,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U61" s="91" t="str" cm="1">
+        <f t="array" ref="U61">IF(U21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U21,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V61" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_MREG,lo:2,hi:3</v>
+      </c>
+    </row>
+    <row r="62" spans="5:22">
+      <c r="E62" s="91" t="str" cm="1">
+        <f t="array" ref="E62">IF(E22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E22,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="91" t="str" cm="1">
+        <f t="array" ref="F62">IF(F22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F22,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="91" t="str" cm="1">
+        <f t="array" ref="G62">IF(G22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G22,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H62" s="91" t="str" cm="1">
+        <f t="array" ref="H62">IF(H22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H22,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I62" s="91" t="str" cm="1">
+        <f t="array" ref="I62">IF(I22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I22,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="91" t="str" cm="1">
+        <f t="array" ref="J62">IF(J22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J22,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="91" t="str" cm="1">
+        <f t="array" ref="K62">IF(K22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K22,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="91" t="str" cm="1">
+        <f t="array" ref="L62">IF(L22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L22,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SP,lo:10,hi:20</v>
+      </c>
+      <c r="M62" s="91" t="str" cm="1">
+        <f t="array" ref="M62">IF(M22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M22,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N62" s="91" t="str" cm="1">
+        <f t="array" ref="N62">IF(N22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N22,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O62" s="91" t="str" cm="1">
+        <f t="array" ref="O62">IF(O22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O22,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P62" s="91" t="str" cm="1">
+        <f t="array" ref="P62">IF(P22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P22,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="91" t="str" cm="1">
+        <f t="array" ref="Q62">IF(Q22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q22,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R62" s="91" t="str" cm="1">
+        <f t="array" ref="R62">IF(R22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R22,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S62" s="91" t="str" cm="1">
+        <f t="array" ref="S62">IF(S22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S22,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T62" s="91" t="str" cm="1">
+        <f t="array" ref="T62">IF(T22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T22,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U62" s="91" t="str" cm="1">
+        <f t="array" ref="U62">IF(U22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U22,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V62" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_SP,lo:10,hi:20</v>
+      </c>
+    </row>
+    <row r="63" spans="5:22">
+      <c r="E63" s="91" t="str" cm="1">
+        <f t="array" ref="E63">IF(E23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E23,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_STR,lo:4,hi:7</v>
+      </c>
+      <c r="F63" s="91" t="str" cm="1">
+        <f t="array" ref="F63">IF(F23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F23,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="91" t="str" cm="1">
+        <f t="array" ref="G63">IF(G23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G23,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H63" s="91" t="str" cm="1">
+        <f t="array" ref="H63">IF(H23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H23,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="91" t="str" cm="1">
+        <f t="array" ref="I63">IF(I23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I23,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="91" t="str" cm="1">
+        <f t="array" ref="J63">IF(J23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J23,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="91" t="str" cm="1">
+        <f t="array" ref="K63">IF(K23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K23,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="91" t="str" cm="1">
+        <f t="array" ref="L63">IF(L23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L23,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="91" t="str" cm="1">
+        <f t="array" ref="M63">IF(M23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M23,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N63" s="91" t="str" cm="1">
+        <f t="array" ref="N63">IF(N23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N23,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O63" s="91" t="str" cm="1">
+        <f t="array" ref="O63">IF(O23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O23,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P63" s="91" t="str" cm="1">
+        <f t="array" ref="P63">IF(P23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P23,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="91" t="str" cm="1">
+        <f t="array" ref="Q63">IF(Q23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q23,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R63" s="91" t="str" cm="1">
+        <f t="array" ref="R63">IF(R23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R23,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S63" s="91" t="str" cm="1">
+        <f t="array" ref="S63">IF(S23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S23,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T63" s="91" t="str" cm="1">
+        <f t="array" ref="T63">IF(T23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T23,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U63" s="91" t="str" cm="1">
+        <f t="array" ref="U63">IF(U23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U23,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V63" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_STR,lo:4,hi:7</v>
+      </c>
+    </row>
+    <row r="64" spans="5:22">
+      <c r="E64" s="91" t="str" cm="1">
+        <f t="array" ref="E64">IF(E24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E24,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_STR,lo:8,hi:15</v>
+      </c>
+      <c r="F64" s="91" t="str" cm="1">
+        <f t="array" ref="F64">IF(F24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F24,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G64" s="91" t="str" cm="1">
+        <f t="array" ref="G64">IF(G24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G24,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H64" s="91" t="str" cm="1">
+        <f t="array" ref="H64">IF(H24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H24,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I64" s="91" t="str" cm="1">
+        <f t="array" ref="I64">IF(I24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I24,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="91" t="str" cm="1">
+        <f t="array" ref="J64">IF(J24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J24,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="91" t="str" cm="1">
+        <f t="array" ref="K64">IF(K24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K24,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L64" s="91" t="str" cm="1">
+        <f t="array" ref="L64">IF(L24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L24,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M64" s="91" t="str" cm="1">
+        <f t="array" ref="M64">IF(M24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M24,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N64" s="91" t="str" cm="1">
+        <f t="array" ref="N64">IF(N24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N24,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O64" s="91" t="str" cm="1">
+        <f t="array" ref="O64">IF(O24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O24,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P64" s="91" t="str" cm="1">
+        <f t="array" ref="P64">IF(P24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P24,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="91" t="str" cm="1">
+        <f t="array" ref="Q64">IF(Q24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q24,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R64" s="91" t="str" cm="1">
+        <f t="array" ref="R64">IF(R24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R24,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S64" s="91" t="str" cm="1">
+        <f t="array" ref="S64">IF(S24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S24,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T64" s="91" t="str" cm="1">
+        <f t="array" ref="T64">IF(T24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T24,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U64" s="91" t="str" cm="1">
+        <f t="array" ref="U64">IF(U24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U24,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V64" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_STR,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="65" spans="5:22">
+      <c r="E65" s="91" t="str" cm="1">
+        <f t="array" ref="E65">IF(E25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E25,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="91" t="str" cm="1">
+        <f t="array" ref="F65">IF(F25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F25,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AGI,lo:4,hi:7</v>
+      </c>
+      <c r="G65" s="91" t="str" cm="1">
+        <f t="array" ref="G65">IF(G25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G25,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H65" s="91" t="str" cm="1">
+        <f t="array" ref="H65">IF(H25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H25,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I65" s="91" t="str" cm="1">
+        <f t="array" ref="I65">IF(I25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I25,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="91" t="str" cm="1">
+        <f t="array" ref="J65">IF(J25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J25,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="91" t="str" cm="1">
+        <f t="array" ref="K65">IF(K25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K25,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="91" t="str" cm="1">
+        <f t="array" ref="L65">IF(L25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L25,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M65" s="91" t="str" cm="1">
+        <f t="array" ref="M65">IF(M25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M25,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N65" s="91" t="str" cm="1">
+        <f t="array" ref="N65">IF(N25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N25,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O65" s="91" t="str" cm="1">
+        <f t="array" ref="O65">IF(O25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O25,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P65" s="91" t="str" cm="1">
+        <f t="array" ref="P65">IF(P25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P25,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="91" t="str" cm="1">
+        <f t="array" ref="Q65">IF(Q25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q25,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R65" s="91" t="str" cm="1">
+        <f t="array" ref="R65">IF(R25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R25,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S65" s="91" t="str" cm="1">
+        <f t="array" ref="S65">IF(S25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S25,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T65" s="91" t="str" cm="1">
+        <f t="array" ref="T65">IF(T25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T25,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U65" s="91" t="str" cm="1">
+        <f t="array" ref="U65">IF(U25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U25,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V65" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AGI,lo:4,hi:7</v>
+      </c>
+    </row>
+    <row r="66" spans="5:22">
+      <c r="E66" s="91" t="str" cm="1">
+        <f t="array" ref="E66">IF(E26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E26,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="91" t="str" cm="1">
+        <f t="array" ref="F66">IF(F26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F26,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AGI,lo:8,hi:15</v>
+      </c>
+      <c r="G66" s="91" t="str" cm="1">
+        <f t="array" ref="G66">IF(G26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G26,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H66" s="91" t="str" cm="1">
+        <f t="array" ref="H66">IF(H26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H26,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="91" t="str" cm="1">
+        <f t="array" ref="I66">IF(I26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I26,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="91" t="str" cm="1">
+        <f t="array" ref="J66">IF(J26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J26,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="91" t="str" cm="1">
+        <f t="array" ref="K66">IF(K26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K26,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L66" s="91" t="str" cm="1">
+        <f t="array" ref="L66">IF(L26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L26,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M66" s="91" t="str" cm="1">
+        <f t="array" ref="M66">IF(M26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M26,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N66" s="91" t="str" cm="1">
+        <f t="array" ref="N66">IF(N26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N26,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O66" s="91" t="str" cm="1">
+        <f t="array" ref="O66">IF(O26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O26,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P66" s="91" t="str" cm="1">
+        <f t="array" ref="P66">IF(P26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P26,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="91" t="str" cm="1">
+        <f t="array" ref="Q66">IF(Q26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q26,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R66" s="91" t="str" cm="1">
+        <f t="array" ref="R66">IF(R26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R26,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S66" s="91" t="str" cm="1">
+        <f t="array" ref="S66">IF(S26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S26,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T66" s="91" t="str" cm="1">
+        <f t="array" ref="T66">IF(T26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T26,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U66" s="91" t="str" cm="1">
+        <f t="array" ref="U66">IF(U26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U26,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V66" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AGI,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="67" spans="5:22">
+      <c r="E67" s="91" t="str" cm="1">
+        <f t="array" ref="E67">IF(E27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E27,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="91" t="str" cm="1">
+        <f t="array" ref="F67">IF(F27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F27,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="91" t="str" cm="1">
+        <f t="array" ref="G67">IF(G27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G27,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_INT,lo:4,hi:7</v>
+      </c>
+      <c r="H67" s="91" t="str" cm="1">
+        <f t="array" ref="H67">IF(H27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H27,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="91" t="str" cm="1">
+        <f t="array" ref="I67">IF(I27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I27,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="91" t="str" cm="1">
+        <f t="array" ref="J67">IF(J27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J27,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="91" t="str" cm="1">
+        <f t="array" ref="K67">IF(K27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K27,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L67" s="91" t="str" cm="1">
+        <f t="array" ref="L67">IF(L27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L27,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M67" s="91" t="str" cm="1">
+        <f t="array" ref="M67">IF(M27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M27,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N67" s="91" t="str" cm="1">
+        <f t="array" ref="N67">IF(N27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N27,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O67" s="91" t="str" cm="1">
+        <f t="array" ref="O67">IF(O27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O27,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P67" s="91" t="str" cm="1">
+        <f t="array" ref="P67">IF(P27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P27,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q67" s="91" t="str" cm="1">
+        <f t="array" ref="Q67">IF(Q27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q27,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R67" s="91" t="str" cm="1">
+        <f t="array" ref="R67">IF(R27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R27,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S67" s="91" t="str" cm="1">
+        <f t="array" ref="S67">IF(S27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S27,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T67" s="91" t="str" cm="1">
+        <f t="array" ref="T67">IF(T27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T27,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U67" s="91" t="str" cm="1">
+        <f t="array" ref="U67">IF(U27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U27,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V67" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_INT,lo:4,hi:7</v>
+      </c>
+    </row>
+    <row r="68" spans="5:22">
+      <c r="E68" s="91" t="str" cm="1">
+        <f t="array" ref="E68">IF(E28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E28,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F68" s="91" t="str" cm="1">
+        <f t="array" ref="F68">IF(F28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F28,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G68" s="91" t="str" cm="1">
+        <f t="array" ref="G68">IF(G28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G28,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_INT,lo:8,hi:15</v>
+      </c>
+      <c r="H68" s="91" t="str" cm="1">
+        <f t="array" ref="H68">IF(H28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H28,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="91" t="str" cm="1">
+        <f t="array" ref="I68">IF(I28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I28,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="91" t="str" cm="1">
+        <f t="array" ref="J68">IF(J28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J28,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K68" s="91" t="str" cm="1">
+        <f t="array" ref="K68">IF(K28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K28,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L68" s="91" t="str" cm="1">
+        <f t="array" ref="L68">IF(L28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L28,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M68" s="91" t="str" cm="1">
+        <f t="array" ref="M68">IF(M28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M28,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N68" s="91" t="str" cm="1">
+        <f t="array" ref="N68">IF(N28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N28,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O68" s="91" t="str" cm="1">
+        <f t="array" ref="O68">IF(O28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O28,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P68" s="91" t="str" cm="1">
+        <f t="array" ref="P68">IF(P28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P28,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="91" t="str" cm="1">
+        <f t="array" ref="Q68">IF(Q28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q28,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R68" s="91" t="str" cm="1">
+        <f t="array" ref="R68">IF(R28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R28,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S68" s="91" t="str" cm="1">
+        <f t="array" ref="S68">IF(S28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S28,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T68" s="91" t="str" cm="1">
+        <f t="array" ref="T68">IF(T28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T28,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U68" s="91" t="str" cm="1">
+        <f t="array" ref="U68">IF(U28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U28,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V68" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_INT,lo:8,hi:15</v>
+      </c>
+    </row>
+    <row r="69" spans="5:22">
+      <c r="E69" s="91" t="str" cm="1">
+        <f t="array" ref="E69">IF(E29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E29,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="91" t="str" cm="1">
+        <f t="array" ref="F69">IF(F29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F29,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="91" t="str" cm="1">
+        <f t="array" ref="G69">IF(G29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G29,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H69" s="91" t="str" cm="1">
+        <f t="array" ref="H69">IF(H29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H29,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HP,lo:57,hi:112</v>
+      </c>
+      <c r="I69" s="91" t="str" cm="1">
+        <f t="array" ref="I69">IF(I29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I29,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J69" s="91" t="str" cm="1">
+        <f t="array" ref="J69">IF(J29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J29,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K69" s="91" t="str" cm="1">
+        <f t="array" ref="K69">IF(K29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K29,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L69" s="91" t="str" cm="1">
+        <f t="array" ref="L69">IF(L29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L29,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M69" s="91" t="str" cm="1">
+        <f t="array" ref="M69">IF(M29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M29,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N69" s="91" t="str" cm="1">
+        <f t="array" ref="N69">IF(N29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N29,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O69" s="91" t="str" cm="1">
+        <f t="array" ref="O69">IF(O29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O29,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P69" s="91" t="str" cm="1">
+        <f t="array" ref="P69">IF(P29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P29,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q69" s="91" t="str" cm="1">
+        <f t="array" ref="Q69">IF(Q29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q29,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R69" s="91" t="str" cm="1">
+        <f t="array" ref="R69">IF(R29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R29,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S69" s="91" t="str" cm="1">
+        <f t="array" ref="S69">IF(S29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S29,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T69" s="91" t="str" cm="1">
+        <f t="array" ref="T69">IF(T29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T29,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U69" s="91" t="str" cm="1">
+        <f t="array" ref="U69">IF(U29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U29,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V69" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HP,lo:57,hi:112</v>
+      </c>
+    </row>
+    <row r="70" spans="5:22">
+      <c r="E70" s="91" t="str" cm="1">
+        <f t="array" ref="E70">IF(E30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E30,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F70" s="91" t="str" cm="1">
+        <f t="array" ref="F70">IF(F30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F30,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="91" t="str" cm="1">
+        <f t="array" ref="G70">IF(G30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G30,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H70" s="91" t="str" cm="1">
+        <f t="array" ref="H70">IF(H30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H30,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HP,lo:113,hi:225</v>
+      </c>
+      <c r="I70" s="91" t="str" cm="1">
+        <f t="array" ref="I70">IF(I30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I30,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J70" s="91" t="str" cm="1">
+        <f t="array" ref="J70">IF(J30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J30,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K70" s="91" t="str" cm="1">
+        <f t="array" ref="K70">IF(K30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K30,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L70" s="91" t="str" cm="1">
+        <f t="array" ref="L70">IF(L30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L30,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M70" s="91" t="str" cm="1">
+        <f t="array" ref="M70">IF(M30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M30,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N70" s="91" t="str" cm="1">
+        <f t="array" ref="N70">IF(N30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N30,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O70" s="91" t="str" cm="1">
+        <f t="array" ref="O70">IF(O30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O30,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P70" s="91" t="str" cm="1">
+        <f t="array" ref="P70">IF(P30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P30,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q70" s="91" t="str" cm="1">
+        <f t="array" ref="Q70">IF(Q30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q30,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R70" s="91" t="str" cm="1">
+        <f t="array" ref="R70">IF(R30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R30,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S70" s="91" t="str" cm="1">
+        <f t="array" ref="S70">IF(S30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S30,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T70" s="91" t="str" cm="1">
+        <f t="array" ref="T70">IF(T30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T30,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U70" s="91" t="str" cm="1">
+        <f t="array" ref="U70">IF(U30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U30,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V70" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HP,lo:113,hi:225</v>
+      </c>
+    </row>
+    <row r="71" spans="5:22">
+      <c r="E71" s="91" t="str" cm="1">
+        <f t="array" ref="E71">IF(E31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E31,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F71" s="91" t="str" cm="1">
+        <f t="array" ref="F71">IF(F31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F31,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G71" s="91" t="str" cm="1">
+        <f t="array" ref="G71">IF(G31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G31,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H71" s="91" t="str" cm="1">
+        <f t="array" ref="H71">IF(H31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H31,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="91" t="str" cm="1">
+        <f t="array" ref="I71">IF(I31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I31,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AP,lo:5,hi:10</v>
+      </c>
+      <c r="J71" s="91" t="str" cm="1">
+        <f t="array" ref="J71">IF(J31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J31,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K71" s="91" t="str" cm="1">
+        <f t="array" ref="K71">IF(K31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K31,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L71" s="91" t="str" cm="1">
+        <f t="array" ref="L71">IF(L31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L31,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M71" s="91" t="str" cm="1">
+        <f t="array" ref="M71">IF(M31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M31,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N71" s="91" t="str" cm="1">
+        <f t="array" ref="N71">IF(N31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N31,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O71" s="91" t="str" cm="1">
+        <f t="array" ref="O71">IF(O31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O31,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P71" s="91" t="str" cm="1">
+        <f t="array" ref="P71">IF(P31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P31,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q71" s="91" t="str" cm="1">
+        <f t="array" ref="Q71">IF(Q31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q31,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R71" s="91" t="str" cm="1">
+        <f t="array" ref="R71">IF(R31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R31,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S71" s="91" t="str" cm="1">
+        <f t="array" ref="S71">IF(S31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S31,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T71" s="91" t="str" cm="1">
+        <f t="array" ref="T71">IF(T31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T31,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U71" s="91" t="str" cm="1">
+        <f t="array" ref="U71">IF(U31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U31,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V71" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AP,lo:5,hi:10</v>
+      </c>
+    </row>
+    <row r="72" spans="5:22">
+      <c r="E72" s="91" t="str" cm="1">
+        <f t="array" ref="E72">IF(E32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E32,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F72" s="91" t="str" cm="1">
+        <f t="array" ref="F72">IF(F32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F32,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G72" s="91" t="str" cm="1">
+        <f t="array" ref="G72">IF(G32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G32,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H72" s="91" t="str" cm="1">
+        <f t="array" ref="H72">IF(H32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H32,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="91" t="str" cm="1">
+        <f t="array" ref="I72">IF(I32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I32,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_AP,lo:10,hi:20</v>
+      </c>
+      <c r="J72" s="91" t="str" cm="1">
+        <f t="array" ref="J72">IF(J32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J32,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K72" s="91" t="str" cm="1">
+        <f t="array" ref="K72">IF(K32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K32,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L72" s="91" t="str" cm="1">
+        <f t="array" ref="L72">IF(L32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L32,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M72" s="91" t="str" cm="1">
+        <f t="array" ref="M72">IF(M32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M32,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N72" s="91" t="str" cm="1">
+        <f t="array" ref="N72">IF(N32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N32,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O72" s="91" t="str" cm="1">
+        <f t="array" ref="O72">IF(O32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O32,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P72" s="91" t="str" cm="1">
+        <f t="array" ref="P72">IF(P32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P32,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q72" s="91" t="str" cm="1">
+        <f t="array" ref="Q72">IF(Q32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q32,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R72" s="91" t="str" cm="1">
+        <f t="array" ref="R72">IF(R32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R32,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S72" s="91" t="str" cm="1">
+        <f t="array" ref="S72">IF(S32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S32,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T72" s="91" t="str" cm="1">
+        <f t="array" ref="T72">IF(T32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T32,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U72" s="91" t="str" cm="1">
+        <f t="array" ref="U72">IF(U32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U32,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V72" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_AP,lo:10,hi:20</v>
+      </c>
+    </row>
+    <row r="73" spans="5:22">
+      <c r="E73" s="91" t="str" cm="1">
+        <f t="array" ref="E73">IF(E33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E33,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F73" s="91" t="str" cm="1">
+        <f t="array" ref="F73">IF(F33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F33,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G73" s="91" t="str" cm="1">
+        <f t="array" ref="G73">IF(G33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G33,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H73" s="91" t="str" cm="1">
+        <f t="array" ref="H73">IF(H33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H33,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="91" t="str" cm="1">
+        <f t="array" ref="I73">IF(I33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I33,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="91" t="str" cm="1">
+        <f t="array" ref="J73">IF(J33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J33,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K73" s="91" t="str" cm="1">
+        <f t="array" ref="K73">IF(K33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K33,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L73" s="91" t="str" cm="1">
+        <f t="array" ref="L73">IF(L33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L33,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SP,lo:8,hi:12</v>
+      </c>
+      <c r="M73" s="91" t="str" cm="1">
+        <f t="array" ref="M73">IF(M33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M33,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N73" s="91" t="str" cm="1">
+        <f t="array" ref="N73">IF(N33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N33,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O73" s="91" t="str" cm="1">
+        <f t="array" ref="O73">IF(O33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O33,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P73" s="91" t="str" cm="1">
+        <f t="array" ref="P73">IF(P33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P33,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q73" s="91" t="str" cm="1">
+        <f t="array" ref="Q73">IF(Q33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q33,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R73" s="91" t="str" cm="1">
+        <f t="array" ref="R73">IF(R33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R33,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S73" s="91" t="str" cm="1">
+        <f t="array" ref="S73">IF(S33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S33,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T73" s="91" t="str" cm="1">
+        <f t="array" ref="T73">IF(T33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T33,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U73" s="91" t="str" cm="1">
+        <f t="array" ref="U73">IF(U33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U33,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V73" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_SP,lo:8,hi:12</v>
+      </c>
+    </row>
+    <row r="74" spans="5:22">
+      <c r="E74" s="91" t="str" cm="1">
+        <f t="array" ref="E74">IF(E34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E34,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F74" s="91" t="str" cm="1">
+        <f t="array" ref="F74">IF(F34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F34,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="91" t="str" cm="1">
+        <f t="array" ref="G74">IF(G34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G34,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H74" s="91" t="str" cm="1">
+        <f t="array" ref="H74">IF(H34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H34,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I74" s="91" t="str" cm="1">
+        <f t="array" ref="I74">IF(I34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I34,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J74" s="91" t="str" cm="1">
+        <f t="array" ref="J74">IF(J34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J34,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K74" s="91" t="str" cm="1">
+        <f t="array" ref="K74">IF(K34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K34,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L74" s="91" t="str" cm="1">
+        <f t="array" ref="L74">IF(L34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L34,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_SP,lo:13,hi:20</v>
+      </c>
+      <c r="M74" s="91" t="str" cm="1">
+        <f t="array" ref="M74">IF(M34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M34,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N74" s="91" t="str" cm="1">
+        <f t="array" ref="N74">IF(N34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N34,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O74" s="91" t="str" cm="1">
+        <f t="array" ref="O74">IF(O34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O34,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P74" s="91" t="str" cm="1">
+        <f t="array" ref="P74">IF(P34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P34,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q74" s="91" t="str" cm="1">
+        <f t="array" ref="Q74">IF(Q34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q34,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R74" s="91" t="str" cm="1">
+        <f t="array" ref="R74">IF(R34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R34,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S74" s="91" t="str" cm="1">
+        <f t="array" ref="S74">IF(S34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S34,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T74" s="91" t="str" cm="1">
+        <f t="array" ref="T74">IF(T34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T34,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U74" s="91" t="str" cm="1">
+        <f t="array" ref="U74">IF(U34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U34,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V74" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_SP,lo:13,hi:20</v>
+      </c>
+    </row>
+    <row r="75" spans="5:22">
+      <c r="E75" s="91" t="str" cm="1">
+        <f t="array" ref="E75">IF(E35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E35,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="91" t="str" cm="1">
+        <f t="array" ref="F75">IF(F35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F35,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="91" t="str" cm="1">
+        <f t="array" ref="G75">IF(G35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G35,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H75" s="91" t="str" cm="1">
+        <f t="array" ref="H75">IF(H35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H35,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="91" t="str" cm="1">
+        <f t="array" ref="I75">IF(I35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I35,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J75" s="91" t="str" cm="1">
+        <f t="array" ref="J75">IF(J35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J35,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K75" s="91" t="str" cm="1">
+        <f t="array" ref="K75">IF(K35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K35,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L75" s="91" t="str" cm="1">
+        <f t="array" ref="L75">IF(L35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L35,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M75" s="91" t="str" cm="1">
+        <f t="array" ref="M75">IF(M35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M35,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N75" s="91" t="str" cm="1">
+        <f t="array" ref="N75">IF(N35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N35,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O75" s="91" t="str" cm="1">
+        <f t="array" ref="O75">IF(O35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O35,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_MREG,lo:1,hi:1</v>
+      </c>
+      <c r="P75" s="91" t="str" cm="1">
+        <f t="array" ref="P75">IF(P35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P35,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q75" s="91" t="str" cm="1">
+        <f t="array" ref="Q75">IF(Q35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q35,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R75" s="91" t="str" cm="1">
+        <f t="array" ref="R75">IF(R35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R35,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S75" s="91" t="str" cm="1">
+        <f t="array" ref="S75">IF(S35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S35,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T75" s="91" t="str" cm="1">
+        <f t="array" ref="T75">IF(T35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T35,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U75" s="91" t="str" cm="1">
+        <f t="array" ref="U75">IF(U35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U35,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V75" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_MREG,lo:1,hi:1</v>
+      </c>
+    </row>
+    <row r="76" spans="5:22">
+      <c r="E76" s="91" t="str" cm="1">
+        <f t="array" ref="E76">IF(E36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E36,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F76" s="91" t="str" cm="1">
+        <f t="array" ref="F76">IF(F36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F36,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="91" t="str" cm="1">
+        <f t="array" ref="G76">IF(G36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G36,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H76" s="91" t="str" cm="1">
+        <f t="array" ref="H76">IF(H36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H36,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I76" s="91" t="str" cm="1">
+        <f t="array" ref="I76">IF(I36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I36,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J76" s="91" t="str" cm="1">
+        <f t="array" ref="J76">IF(J36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J36,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K76" s="91" t="str" cm="1">
+        <f t="array" ref="K76">IF(K36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K36,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L76" s="91" t="str" cm="1">
+        <f t="array" ref="L76">IF(L36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L36,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M76" s="91" t="str" cm="1">
+        <f t="array" ref="M76">IF(M36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M36,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N76" s="91" t="str" cm="1">
+        <f t="array" ref="N76">IF(N36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N36,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O76" s="91" t="str" cm="1">
+        <f t="array" ref="O76">IF(O36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O36,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_MREG,lo:2,hi:3</v>
+      </c>
+      <c r="P76" s="91" t="str" cm="1">
+        <f t="array" ref="P76">IF(P36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P36,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q76" s="91" t="str" cm="1">
+        <f t="array" ref="Q76">IF(Q36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q36,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R76" s="91" t="str" cm="1">
+        <f t="array" ref="R76">IF(R36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R36,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S76" s="91" t="str" cm="1">
+        <f t="array" ref="S76">IF(S36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S36,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T76" s="91" t="str" cm="1">
+        <f t="array" ref="T76">IF(T36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T36,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U76" s="91" t="str" cm="1">
+        <f t="array" ref="U76">IF(U36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U36,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V76" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_MREG,lo:2,hi:3</v>
+      </c>
+    </row>
+    <row r="77" spans="5:22">
+      <c r="E77" s="91" t="str" cm="1">
+        <f t="array" ref="E77">IF(E37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E37,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F77" s="91" t="str" cm="1">
+        <f t="array" ref="F77">IF(F37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F37,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="91" t="str" cm="1">
+        <f t="array" ref="G77">IF(G37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G37,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H77" s="91" t="str" cm="1">
+        <f t="array" ref="H77">IF(H37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H37,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="91" t="str" cm="1">
+        <f t="array" ref="I77">IF(I37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I37,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J77" s="91" t="str" cm="1">
+        <f t="array" ref="J77">IF(J37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J37,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K77" s="91" t="str" cm="1">
+        <f t="array" ref="K77">IF(K37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K37,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L77" s="91" t="str" cm="1">
+        <f t="array" ref="L77">IF(L37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L37,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M77" s="91" t="str" cm="1">
+        <f t="array" ref="M77">IF(M37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M37,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N77" s="91" t="str" cm="1">
+        <f t="array" ref="N77">IF(N37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N37,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O77" s="91" t="str" cm="1">
+        <f t="array" ref="O77">IF(O37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O37,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P77" s="91" t="str" cm="1">
+        <f t="array" ref="P77">IF(P37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P37,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q77" s="91" t="str" cm="1">
+        <f t="array" ref="Q77">IF(Q37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q37,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_DEF,lo:1,hi:2</v>
+      </c>
+      <c r="R77" s="91" t="str" cm="1">
+        <f t="array" ref="R77">IF(R37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R37,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S77" s="91" t="str" cm="1">
+        <f t="array" ref="S77">IF(S37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S37,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T77" s="91" t="str" cm="1">
+        <f t="array" ref="T77">IF(T37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T37,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U77" s="91" t="str" cm="1">
+        <f t="array" ref="U77">IF(U37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U37,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V77" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_DEF,lo:1,hi:2</v>
+      </c>
+    </row>
+    <row r="78" spans="5:22">
+      <c r="E78" s="91" t="str" cm="1">
+        <f t="array" ref="E78">IF(E38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E38,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F78" s="91" t="str" cm="1">
+        <f t="array" ref="F78">IF(F38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F38,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="91" t="str" cm="1">
+        <f t="array" ref="G78">IF(G38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G38,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H78" s="91" t="str" cm="1">
+        <f t="array" ref="H78">IF(H38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H38,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I78" s="91" t="str" cm="1">
+        <f t="array" ref="I78">IF(I38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I38,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J78" s="91" t="str" cm="1">
+        <f t="array" ref="J78">IF(J38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J38,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K78" s="91" t="str" cm="1">
+        <f t="array" ref="K78">IF(K38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K38,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L78" s="91" t="str" cm="1">
+        <f t="array" ref="L78">IF(L38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L38,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M78" s="91" t="str" cm="1">
+        <f t="array" ref="M78">IF(M38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M38,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N78" s="91" t="str" cm="1">
+        <f t="array" ref="N78">IF(N38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N38,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O78" s="91" t="str" cm="1">
+        <f t="array" ref="O78">IF(O38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O38,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P78" s="91" t="str" cm="1">
+        <f t="array" ref="P78">IF(P38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P38,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q78" s="91" t="str" cm="1">
+        <f t="array" ref="Q78">IF(Q38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q38,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_DEF,lo:3,hi:5</v>
+      </c>
+      <c r="R78" s="91" t="str" cm="1">
+        <f t="array" ref="R78">IF(R38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R38,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S78" s="91" t="str" cm="1">
+        <f t="array" ref="S78">IF(S38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S38,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T78" s="91" t="str" cm="1">
+        <f t="array" ref="T78">IF(T38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T38,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U78" s="91" t="str" cm="1">
+        <f t="array" ref="U78">IF(U38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U38,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V78" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_DEF,lo:3,hi:5</v>
+      </c>
+    </row>
+    <row r="79" spans="5:22">
+      <c r="E79" s="91" t="str" cm="1">
+        <f t="array" ref="E79">IF(E39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E39,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="91" t="str" cm="1">
+        <f t="array" ref="F79">IF(F39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F39,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="91" t="str" cm="1">
+        <f t="array" ref="G79">IF(G39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G39,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H79" s="91" t="str" cm="1">
+        <f t="array" ref="H79">IF(H39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H39,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I79" s="91" t="str" cm="1">
+        <f t="array" ref="I79">IF(I39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I39,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J79" s="91" t="str" cm="1">
+        <f t="array" ref="J79">IF(J39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J39,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K79" s="91" t="str" cm="1">
+        <f t="array" ref="K79">IF(K39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K39,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L79" s="91" t="str" cm="1">
+        <f t="array" ref="L79">IF(L39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L39,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M79" s="91" t="str" cm="1">
+        <f t="array" ref="M79">IF(M39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M39,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N79" s="91" t="str" cm="1">
+        <f t="array" ref="N79">IF(N39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N39,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O79" s="91" t="str" cm="1">
+        <f t="array" ref="O79">IF(O39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O39,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P79" s="91" t="str" cm="1">
+        <f t="array" ref="P79">IF(P39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P39,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HREG,lo:2,hi:4</v>
+      </c>
+      <c r="Q79" s="91" t="str" cm="1">
+        <f t="array" ref="Q79">IF(Q39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q39,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R79" s="91" t="str" cm="1">
+        <f t="array" ref="R79">IF(R39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R39,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S79" s="91" t="str" cm="1">
+        <f t="array" ref="S79">IF(S39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S39,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T79" s="91" t="str" cm="1">
+        <f t="array" ref="T79">IF(T39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T39,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U79" s="91" t="str" cm="1">
+        <f t="array" ref="U79">IF(U39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U39,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V79" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HREG,lo:2,hi:4</v>
+      </c>
+    </row>
+    <row r="80" spans="5:22">
+      <c r="E80" s="91" t="str" cm="1">
+        <f t="array" ref="E80">IF(E40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E40,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F80" s="91" t="str" cm="1">
+        <f t="array" ref="F80">IF(F40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F40,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G80" s="91" t="str" cm="1">
+        <f t="array" ref="G80">IF(G40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G40,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H80" s="91" t="str" cm="1">
+        <f t="array" ref="H80">IF(H40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H40,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="91" t="str" cm="1">
+        <f t="array" ref="I80">IF(I40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I40,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="91" t="str" cm="1">
+        <f t="array" ref="J80">IF(J40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J40,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="91" t="str" cm="1">
+        <f t="array" ref="K80">IF(K40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K40,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L80" s="91" t="str" cm="1">
+        <f t="array" ref="L80">IF(L40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L40,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M80" s="91" t="str" cm="1">
+        <f t="array" ref="M80">IF(M40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M40,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N80" s="91" t="str" cm="1">
+        <f t="array" ref="N80">IF(N40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N40,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O80" s="91" t="str" cm="1">
+        <f t="array" ref="O80">IF(O40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O40,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P80" s="91" t="str" cm="1">
+        <f t="array" ref="P80">IF(P40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P40,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_HREG,lo:4,hi:8</v>
+      </c>
+      <c r="Q80" s="91" t="str" cm="1">
+        <f t="array" ref="Q80">IF(Q40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q40,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R80" s="91" t="str" cm="1">
+        <f t="array" ref="R80">IF(R40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R40,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S80" s="91" t="str" cm="1">
+        <f t="array" ref="S80">IF(S40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S40,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T80" s="91" t="str" cm="1">
+        <f t="array" ref="T80">IF(T40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T40,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U80" s="91" t="str" cm="1">
+        <f t="array" ref="U80">IF(U40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U40,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V80" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_HREG,lo:4,hi:8</v>
+      </c>
+    </row>
+    <row r="81" spans="5:22">
+      <c r="E81" s="91" t="str" cm="1">
+        <f t="array" ref="E81">IF(E41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E41,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="91" t="str" cm="1">
+        <f t="array" ref="F81">IF(F41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F41,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="91" t="str" cm="1">
+        <f t="array" ref="G81">IF(G41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G41,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="91" t="str" cm="1">
+        <f t="array" ref="H81">IF(H41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H41,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="91" t="str" cm="1">
+        <f t="array" ref="I81">IF(I41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I41,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="91" t="str" cm="1">
+        <f t="array" ref="J81">IF(J41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J41,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K81" s="91" t="str" cm="1">
+        <f t="array" ref="K81">IF(K41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K41,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="91" t="str" cm="1">
+        <f t="array" ref="L81">IF(L41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L41,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M81" s="91" t="str" cm="1">
+        <f t="array" ref="M81">IF(M41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M41,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N81" s="91" t="str" cm="1">
+        <f t="array" ref="N81">IF(N41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N41,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O81" s="91" t="str" cm="1">
+        <f t="array" ref="O81">IF(O41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O41,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P81" s="91" t="str" cm="1">
+        <f t="array" ref="P81">IF(P41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P41,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q81" s="91" t="str" cm="1">
+        <f t="array" ref="Q81">IF(Q41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q41,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R81" s="91" t="str" cm="1">
+        <f t="array" ref="R81">IF(R41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R41,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S81" s="91" t="str" cm="1">
+        <f t="array" ref="S81">IF(S41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S41,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T81" s="91" t="str" cm="1">
+        <f t="array" ref="T81">IF(T41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T41,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_ATK_LL,lo:0.01,hi:0.02</v>
+      </c>
+      <c r="U81" s="91" t="str" cm="1">
+        <f t="array" ref="U81">IF(U41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U41,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="V81" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_ATK_LL,lo:0.01,hi:0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="5:22">
+      <c r="E82" s="91" t="str" cm="1">
+        <f t="array" ref="E82">IF(E42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E42,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="F82" s="91" t="str" cm="1">
+        <f t="array" ref="F82">IF(F42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F42,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="91" t="str" cm="1">
+        <f t="array" ref="G82">IF(G42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G42,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="91" t="str" cm="1">
+        <f t="array" ref="H82">IF(H42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H42,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="91" t="str" cm="1">
+        <f t="array" ref="I82">IF(I42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I42,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="91" t="str" cm="1">
+        <f t="array" ref="J82">IF(J42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J42,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="K82" s="91" t="str" cm="1">
+        <f t="array" ref="K82">IF(K42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K42,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="L82" s="91" t="str" cm="1">
+        <f t="array" ref="L82">IF(L42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L42,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="M82" s="91" t="str" cm="1">
+        <f t="array" ref="M82">IF(M42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M42,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="N82" s="91" t="str" cm="1">
+        <f t="array" ref="N82">IF(N42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N42,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="O82" s="91" t="str" cm="1">
+        <f t="array" ref="O82">IF(O42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O42,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="P82" s="91" t="str" cm="1">
+        <f t="array" ref="P82">IF(P42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P42,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="Q82" s="91" t="str" cm="1">
+        <f t="array" ref="Q82">IF(Q42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q42,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="R82" s="91" t="str" cm="1">
+        <f t="array" ref="R82">IF(R42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R42,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="S82" s="91" t="str" cm="1">
+        <f t="array" ref="S82">IF(S42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S42,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="T82" s="91" t="str" cm="1">
+        <f t="array" ref="T82">IF(T42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T42,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v/>
+      </c>
+      <c r="U82" s="91" t="str" cm="1">
+        <f t="array" ref="U82">IF(U42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U42,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
+        <v>id:IATTR_ATK_ML,lo:0.01,hi:0.02</v>
+      </c>
+      <c r="V82" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>id:IATTR_ATK_ML,lo:0.01,hi:0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="5:22">
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+    </row>
+    <row r="84" spans="5:22">
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
+    </row>
+    <row r="85" spans="5:22">
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="91"/>
+    </row>
+    <row r="86" spans="5:22">
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
+      <c r="M86" s="91"/>
+      <c r="N86" s="91"/>
+      <c r="O86" s="91"/>
+      <c r="P86" s="91"/>
+      <c r="Q86" s="91"/>
+      <c r="R86" s="91"/>
+      <c r="S86" s="91"/>
+      <c r="T86" s="91"/>
+      <c r="U86" s="91"/>
+    </row>
+    <row r="87" spans="5:22">
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="91"/>
+      <c r="P87" s="91"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="91"/>
+      <c r="S87" s="91"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
@@ -4838,9 +8036,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F20:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7631,7 +10829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8862,8 +12060,8 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -16231,7 +19429,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -16487,11 +19685,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -16940,49 +20138,57 @@
       <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="77">
+        <v>1</v>
+      </c>
       <c r="C18" s="76"/>
-      <c r="D18" s="78"/>
+      <c r="D18" s="78" t="s">
+        <v>149</v>
+      </c>
       <c r="E18" s="78"/>
-      <c r="F18" s="69"/>
+      <c r="F18" s="69" t="s">
+        <v>242</v>
+      </c>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B19" s="77">
         <v>1</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
       <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="77">
-        <v>1</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="A20" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="79">
+        <v>2</v>
+      </c>
+      <c r="C20" s="78"/>
       <c r="D20" s="78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E20" s="78"/>
       <c r="F20" s="69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
@@ -16990,18 +20196,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" s="79">
         <v>2</v>
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
@@ -17009,18 +20215,18 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B22" s="79">
         <v>2</v>
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E22" s="78"/>
       <c r="F22" s="69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
@@ -17028,18 +20234,18 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B23" s="79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="78" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="69"/>
@@ -17047,18 +20253,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="78" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E24" s="78"/>
       <c r="F24" s="69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
@@ -17066,18 +20272,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" s="79">
         <v>2</v>
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E25" s="78"/>
       <c r="F25" s="69" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
@@ -17085,18 +20291,18 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E26" s="78"/>
       <c r="F26" s="69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
@@ -17104,18 +20310,18 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B27" s="79">
         <v>3</v>
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="78" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" s="78"/>
       <c r="F27" s="69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
@@ -17123,18 +20329,18 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B28" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E28" s="78"/>
       <c r="F28" s="69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
@@ -17142,18 +20348,18 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="78" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B29" s="79">
         <v>2</v>
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E29" s="78"/>
       <c r="F29" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
@@ -17161,48 +20367,56 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B30" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E30" s="78"/>
       <c r="F30" s="69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
       <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="79">
+        <v>3</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78" t="s">
+        <v>175</v>
+      </c>
       <c r="E31" s="78"/>
-      <c r="F31" s="69"/>
+      <c r="F31" s="69" t="s">
+        <v>250</v>
+      </c>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="78" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B32" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="78" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E32" s="78"/>
       <c r="F32" s="69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
@@ -17210,146 +20424,154 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="78" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B33" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="78" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E33" s="78"/>
       <c r="F33" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G33" s="69"/>
       <c r="H33" s="69"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="79">
-        <v>2</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="76"/>
+    <row r="34" spans="1:14" s="83" customFormat="1">
+      <c r="A34" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="81">
+        <v>3</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D34" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="82" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J34" s="83" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>874</v>
+      </c>
+      <c r="M34" s="83" t="str">
+        <f>C34</f>
+        <v>Potion of Invulnerability</v>
+      </c>
+      <c r="N34" s="83" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="78" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B35" s="79">
         <v>2</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E35" s="78"/>
       <c r="F35" s="69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:14" s="83" customFormat="1">
-      <c r="A36" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="81">
-        <v>3</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="82" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J36" s="83" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K36" s="83" t="s">
-        <v>873</v>
-      </c>
-      <c r="L36" s="83" t="s">
-        <v>874</v>
-      </c>
-      <c r="M36" s="83" t="str">
-        <f>C36</f>
-        <v>Potion of Invulnerability</v>
-      </c>
-      <c r="N36" s="83" t="s">
-        <v>1025</v>
-      </c>
+    <row r="36" spans="1:14">
+      <c r="A36" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="79">
+        <v>2</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B37" s="79">
         <v>2</v>
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="78" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E37" s="78"/>
       <c r="F37" s="69" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="79">
+        <v>2</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78" t="s">
+        <v>189</v>
+      </c>
       <c r="E38" s="78"/>
-      <c r="F38" s="69"/>
+      <c r="F38" s="69" t="s">
+        <v>258</v>
+      </c>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
       <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="78" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B39" s="79">
         <v>2</v>
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="78" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="69" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
@@ -17357,18 +20579,18 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="78" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B40" s="79">
         <v>2</v>
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="78" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E40" s="78"/>
       <c r="F40" s="69" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
@@ -17376,48 +20598,56 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="78" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B41" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="78" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="69" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
       <c r="I41" s="76"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="78"/>
+      <c r="A42" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="79">
+        <v>2</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
+        <v>199</v>
+      </c>
       <c r="E42" s="78"/>
-      <c r="F42" s="69"/>
+      <c r="F42" s="69" t="s">
+        <v>265</v>
+      </c>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
       <c r="I42" s="76"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="78" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B43" s="79">
         <v>2</v>
       </c>
       <c r="C43" s="78"/>
       <c r="D43" s="78" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E43" s="78"/>
       <c r="F43" s="69" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -17425,18 +20655,18 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="78" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B44" s="79">
         <v>2</v>
       </c>
       <c r="C44" s="78"/>
       <c r="D44" s="78" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="69" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
@@ -17444,48 +20674,62 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="78" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B45" s="79">
-        <v>3</v>
-      </c>
-      <c r="C45" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>205</v>
+      </c>
       <c r="D45" s="78" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E45" s="78"/>
       <c r="F45" s="69" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
       <c r="I45" s="76"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="76"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="79">
+        <v>2</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>210</v>
+      </c>
       <c r="E46" s="78"/>
-      <c r="F46" s="69"/>
+      <c r="F46" s="69" t="s">
+        <v>211</v>
+      </c>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
       <c r="I46" s="76"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="78" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B47" s="79">
         <v>2</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="78" t="s">
+        <v>213</v>
+      </c>
       <c r="D47" s="78" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E47" s="78"/>
       <c r="F47" s="69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -17493,18 +20737,20 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="78" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B48" s="79">
         <v>2</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="78"/>
+      <c r="C48" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="88"/>
       <c r="F48" s="69" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -17512,50 +20758,62 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="78" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B49" s="79">
-        <v>2</v>
-      </c>
-      <c r="C49" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>219</v>
+      </c>
       <c r="D49" s="78" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E49" s="78"/>
       <c r="F49" s="69" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
       <c r="I49" s="76"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="78"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="A50" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="79">
+        <v>3</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>223</v>
+      </c>
       <c r="E50" s="78"/>
-      <c r="F50" s="69"/>
+      <c r="F50" s="69" t="s">
+        <v>255</v>
+      </c>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
       <c r="I50" s="76"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="78" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B51" s="79">
         <v>2</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="78"/>
+        <v>225</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="88"/>
       <c r="F51" s="69" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -17563,182 +20821,122 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="78" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B52" s="79">
         <v>2</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E52" s="78"/>
       <c r="F52" s="69" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
+      <c r="H52" s="73" t="s">
+        <v>232</v>
+      </c>
       <c r="I52" s="76"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="79">
-        <v>2</v>
-      </c>
-      <c r="C53" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="76"/>
+    <row r="53" spans="1:9" s="83" customFormat="1">
+      <c r="A53" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="81">
+        <v>3</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="71"/>
+      <c r="H53" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="79">
-        <v>2</v>
-      </c>
-      <c r="C54" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="69" t="s">
-        <v>264</v>
-      </c>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
       <c r="I54" s="76"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="79">
-        <v>3</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="78" t="s">
-        <v>220</v>
-      </c>
+      <c r="A55" s="78"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
       <c r="E55" s="78"/>
-      <c r="F55" s="69" t="s">
-        <v>260</v>
-      </c>
+      <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
       <c r="I55" s="76"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="B56" s="79">
-        <v>3</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>223</v>
-      </c>
+      <c r="A56" s="78"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
       <c r="E56" s="78"/>
-      <c r="F56" s="69" t="s">
-        <v>255</v>
-      </c>
+      <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
       <c r="I56" s="76"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" s="79">
-        <v>2</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" s="88"/>
-      <c r="F57" s="69" t="s">
-        <v>227</v>
-      </c>
+      <c r="A57" s="78"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
       <c r="I57" s="76"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="79">
-        <v>2</v>
-      </c>
-      <c r="C58" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="78" t="s">
-        <v>230</v>
-      </c>
+      <c r="A58" s="78"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="78"/>
-      <c r="F58" s="69" t="s">
-        <v>231</v>
-      </c>
+      <c r="F58" s="69"/>
       <c r="G58" s="69"/>
-      <c r="H58" s="73" t="s">
-        <v>232</v>
-      </c>
+      <c r="H58" s="69"/>
       <c r="I58" s="76"/>
     </row>
-    <row r="59" spans="1:9" s="83" customFormat="1">
-      <c r="A59" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="81">
-        <v>3</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D59" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" s="80" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F59" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="I59" s="82"/>
+    <row r="59" spans="1:9">
+      <c r="A59" s="78"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="76"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="76"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
       <c r="F60" s="69"/>
@@ -17778,72 +20976,6 @@
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
       <c r="I63" s="76"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="78"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="76"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="78"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="76"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="78"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="76"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="78"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="76"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="78"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="76"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="78"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
